--- a/firebase_data_from_spyEnsembleVSMO.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BE049-DA3A-4FB5-9BE1-19AAE0DF3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -626,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -672,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -712,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4615384615384615</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="G14">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -781,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4705882352941176</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="G17">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -804,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G18">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -827,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4210526315789472</v>
+        <v>0.42105263157894718</v>
       </c>
       <c r="G19">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -850,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.4230769230769231</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="G20">
-        <v>0.5769230769230769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.57692307692307687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -879,7 +897,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -896,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G22">
-        <v>0.2333333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.23333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -919,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.3870967741935483</v>
+        <v>0.38709677419354832</v>
       </c>
       <c r="G23">
-        <v>0.6129032258064516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.61290322580645162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -942,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G24">
-        <v>0.6363636363636364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -971,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -988,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.2894736842105263</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="G26">
-        <v>0.7105263157894737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1014,10 +1032,10 @@
         <v>0.625</v>
       </c>
       <c r="G27">
-        <v>0.3749999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.37499999999999978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1057,13 +1075,13 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.3571428571428572</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="G29">
-        <v>0.6428571428571428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.64285714285714279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1080,13 +1098,13 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.7045454545454546</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="G30">
-        <v>0.2954545454545455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.29545454545454553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1103,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.3478260869565217</v>
+        <v>0.34782608695652167</v>
       </c>
       <c r="G31">
-        <v>0.6521739130434783</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1149,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.6274509803921569</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="G33">
-        <v>0.3725490196078431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.37254901960784309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1172,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.673076923076923</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="G34">
-        <v>0.3269230769230769</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.32692307692307693</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1195,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0.2884615384615385</v>
+        <v>0.28846153846153849</v>
       </c>
       <c r="G35">
-        <v>0.7115384615384615</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.71153846153846145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1287,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.6851851851851852</v>
+        <v>0.68518518518518523</v>
       </c>
       <c r="G39">
-        <v>0.3148148148148148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.31481481481481483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1333,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.3272727272727273</v>
+        <v>0.32727272727272733</v>
       </c>
       <c r="G41">
-        <v>0.6727272727272726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.67272727272727262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1356,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G42">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1382,10 +1400,10 @@
         <v>0.339622641509434</v>
       </c>
       <c r="G43">
-        <v>0.6603773584905661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.66037735849056611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1494,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.6909090909090909</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="G48">
-        <v>0.3090909090909091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.30909090909090908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1517,13 +1535,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G49">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1540,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.3148148148148148</v>
+        <v>0.31481481481481483</v>
       </c>
       <c r="G50">
-        <v>0.6851851851851852</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.68518518518518523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1586,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.6727272727272726</v>
+        <v>0.67272727272727262</v>
       </c>
       <c r="G52">
-        <v>0.3272727272727273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.32727272727272733</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1609,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G53">
-        <v>0.3333333333333334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.33333333333333343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1632,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0.6415094339622642</v>
+        <v>0.64150943396226423</v>
       </c>
       <c r="G54">
-        <v>0.3584905660377359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.35849056603773588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1655,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.346153846153846</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="G55">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1678,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0.6862745098039216</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="G56">
-        <v>0.3137254901960784</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.31372549019607843</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1747,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.346153846153846</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="G59">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1770,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5142857142857143</v>
+        <v>0.51428571428571435</v>
       </c>
       <c r="G60">
-        <v>0.4857142857142857</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1793,13 +1811,13 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0.6862745098039216</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="G61">
-        <v>0.3137254901960784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.31372549019607843</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1816,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.5142857142857143</v>
+        <v>0.51428571428571435</v>
       </c>
       <c r="G62">
-        <v>0.4857142857142857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1839,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.6862745098039216</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="G63">
-        <v>0.3137254901960784</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.31372549019607843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1862,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0.3333333333333334</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="G64">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1885,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.5142857142857143</v>
+        <v>0.51428571428571435</v>
       </c>
       <c r="G65">
-        <v>0.4857142857142857</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1954,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G68">
-        <v>0.3333333333333334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.33333333333333343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2000,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.673469387755102</v>
+        <v>0.67346938775510201</v>
       </c>
       <c r="G70">
-        <v>0.326530612244898</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.32653061224489799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2069,13 +2087,13 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G73">
-        <v>0.3333333333333334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.33333333333333343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2115,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0.326530612244898</v>
+        <v>0.32653061224489799</v>
       </c>
       <c r="G75">
-        <v>0.673469387755102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.67346938775510201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2138,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G76">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2276,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="G82">
-        <v>0.7058823529411764</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.70588235294117641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2368,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0.5263157894736843</v>
+        <v>0.52631578947368429</v>
       </c>
       <c r="G86">
-        <v>0.4736842105263158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.47368421052631582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2437,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0.4736842105263158</v>
+        <v>0.47368421052631582</v>
       </c>
       <c r="G89">
-        <v>0.5263157894736843</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.52631578947368429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2483,13 +2501,13 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>0.3396226415094339</v>
+        <v>0.33962264150943389</v>
       </c>
       <c r="G91">
         <v>0.660377358490566</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2506,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.2641509433962264</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="G92">
-        <v>0.7358490566037736</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.73584905660377364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2552,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0.5573770491803279</v>
+        <v>0.55737704918032793</v>
       </c>
       <c r="G94">
-        <v>0.4426229508196722</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.44262295081967218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2575,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0.7868852459016393</v>
+        <v>0.78688524590163933</v>
       </c>
       <c r="G95">
         <v>0.2131147540983607</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2598,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G96">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2621,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0.2096774193548387</v>
+        <v>0.20967741935483869</v>
       </c>
       <c r="G97">
-        <v>0.7903225806451615</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.79032258064516148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2644,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0.2063492063492063</v>
+        <v>0.20634920634920631</v>
       </c>
       <c r="G98">
-        <v>0.7936507936507937</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.79365079365079372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2667,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.3584905660377359</v>
+        <v>0.35849056603773588</v>
       </c>
       <c r="G99">
-        <v>0.6415094339622642</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.64150943396226423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2690,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.4150943396226415</v>
+        <v>0.41509433962264147</v>
       </c>
       <c r="G100">
-        <v>0.5849056603773586</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.58490566037735858</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2759,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G103">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2851,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G107">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2897,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0.2307692307692308</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="G109">
-        <v>0.7692307692307694</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>0.76923076923076938</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3058,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G116">
         <v>0.72</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3081,13 +3099,13 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0.2337662337662338</v>
+        <v>0.23376623376623379</v>
       </c>
       <c r="G117">
-        <v>0.7662337662337663</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>0.76623376623376627</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3104,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.217948717948718</v>
+        <v>0.21794871794871801</v>
       </c>
       <c r="G118">
-        <v>0.782051282051282</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>0.78205128205128205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3127,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0.5128205128205129</v>
+        <v>0.51282051282051289</v>
       </c>
       <c r="G119">
-        <v>0.4871794871794872</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>0.48717948717948723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3173,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>0.2727272727272728</v>
+        <v>0.27272727272727282</v>
       </c>
       <c r="G121">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3196,13 +3214,13 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0.2597402597402598</v>
+        <v>0.25974025974025983</v>
       </c>
       <c r="G122">
-        <v>0.7402597402597402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>0.74025974025974017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3219,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.5194805194805195</v>
+        <v>0.51948051948051954</v>
       </c>
       <c r="G123">
-        <v>0.4805194805194805</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>0.48051948051948051</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3242,13 +3260,13 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0.2597402597402598</v>
+        <v>0.25974025974025983</v>
       </c>
       <c r="G124">
-        <v>0.7402597402597402</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>0.74025974025974017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3265,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0.7662337662337663</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="G125">
-        <v>0.2337662337662338</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>0.23376623376623379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3317,7 +3335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>0.2533333333333333</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3357,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0.7532467532467533</v>
+        <v>0.75324675324675328</v>
       </c>
       <c r="G129">
-        <v>0.2467532467532468</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>0.24675324675324681</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3380,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>0.4675324675324676</v>
+        <v>0.46753246753246758</v>
       </c>
       <c r="G130">
-        <v>0.5324675324675325</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>0.53246753246753253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3403,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0.3548387096774194</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="G131">
-        <v>0.6451612903225807</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>0.64516129032258074</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3426,13 +3444,13 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>0.3387096774193548</v>
+        <v>0.33870967741935482</v>
       </c>
       <c r="G132">
-        <v>0.6612903225806451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>0.66129032258064513</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3472,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0.5116279069767442</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="G134">
-        <v>0.4883720930232557</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>0.48837209302325568</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3541,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>0.3076923076923078</v>
+        <v>0.30769230769230782</v>
       </c>
       <c r="G137">
-        <v>0.6923076923076923</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>0.7192982456140351</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3702,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="G144">
         <v>0.7222222222222221</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3725,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0.2676056338028169</v>
+        <v>0.26760563380281688</v>
       </c>
       <c r="G145">
-        <v>0.7323943661971832</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>0.73239436619718323</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3748,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>0.2028985507246377</v>
+        <v>0.20289855072463769</v>
       </c>
       <c r="G146">
-        <v>0.7971014492753623</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>0.79710144927536231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3774,10 +3792,10 @@
         <v>0.2318840579710145</v>
       </c>
       <c r="G147">
-        <v>0.7681159420289856</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>0.76811594202898559</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3794,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>0.1884057971014493</v>
+        <v>0.18840579710144931</v>
       </c>
       <c r="G148">
-        <v>0.8115942028985508</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>0.81159420289855078</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3817,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0.388888888888889</v>
+        <v>0.38888888888888901</v>
       </c>
       <c r="G149">
-        <v>0.6111111111111112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3846,7 +3864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3863,13 +3881,13 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>0.6415094339622642</v>
+        <v>0.64150943396226423</v>
       </c>
       <c r="G151">
-        <v>0.3584905660377358</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>0.35849056603773582</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3886,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>0.5230769230769231</v>
+        <v>0.52307692307692311</v>
       </c>
       <c r="G152">
-        <v>0.4769230769230768</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>0.47692307692307678</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3909,13 +3927,13 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="G153">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3932,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G154">
-        <v>0.6923076923076923</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3955,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0.4925373134328359</v>
+        <v>0.49253731343283591</v>
       </c>
       <c r="G155">
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3978,13 +3996,13 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>0.196969696969697</v>
+        <v>0.19696969696969699</v>
       </c>
       <c r="G156">
-        <v>0.803030303030303</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>0.80303030303030298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4024,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="G158">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4047,13 +4065,13 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G159">
-        <v>0.2727272727272727</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4076,7 +4094,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4093,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>0.2352941176470588</v>
+        <v>0.23529411764705879</v>
       </c>
       <c r="G161">
-        <v>0.7647058823529413</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>0.76470588235294135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4119,10 +4137,10 @@
         <v>0.2318840579710145</v>
       </c>
       <c r="G162">
-        <v>0.7681159420289855</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>0.76811594202898548</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4139,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0.463768115942029</v>
+        <v>0.46376811594202899</v>
       </c>
       <c r="G163">
-        <v>0.5362318840579711</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>0.53623188405797106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4185,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>0.7714285714285716</v>
+        <v>0.77142857142857157</v>
       </c>
       <c r="G165">
-        <v>0.2285714285714286</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>0.22857142857142859</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4208,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0.4782608695652174</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="G166">
-        <v>0.5217391304347826</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4277,13 +4295,13 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>0.2173913043478261</v>
+        <v>0.21739130434782611</v>
       </c>
       <c r="G169">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4300,13 +4318,13 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>0.5492957746478874</v>
+        <v>0.54929577464788737</v>
       </c>
       <c r="G170">
-        <v>0.4507042253521127</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>0.45070422535211269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4323,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>0.3508771929824562</v>
+        <v>0.35087719298245618</v>
       </c>
       <c r="G171">
-        <v>0.6491228070175439</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>0.64912280701754388</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>0.3750000000000002</v>
+        <v>0.37500000000000022</v>
       </c>
       <c r="G174">
         <v>0.625</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4415,13 +4433,13 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>0.2083333333333333</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="G175">
-        <v>0.7916666666666667</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>0.79166666666666674</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4438,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0.3508771929824561</v>
+        <v>0.35087719298245612</v>
       </c>
       <c r="G176">
-        <v>0.6491228070175439</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>0.64912280701754388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4461,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>0.3508771929824561</v>
+        <v>0.35087719298245612</v>
       </c>
       <c r="G177">
-        <v>0.6491228070175439</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>0.64912280701754388</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4484,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0.2702702702702703</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="G178">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4507,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>0.2739726027397261</v>
+        <v>0.27397260273972612</v>
       </c>
       <c r="G179">
-        <v>0.726027397260274</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>0.72602739726027399</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4530,13 +4548,13 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="G180">
         <v>0.7222222222222221</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4553,13 +4571,13 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>0.2083333333333333</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="G181">
-        <v>0.7916666666666667</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>0.79166666666666674</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4622,13 +4640,13 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>0.3673469387755102</v>
+        <v>0.36734693877551022</v>
       </c>
       <c r="G184">
-        <v>0.6326530612244898</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>0.63265306122448983</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4645,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>0.346938775510204</v>
+        <v>0.34693877551020402</v>
       </c>
       <c r="G185">
-        <v>0.653061224489796</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>0.65306122448979598</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4668,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0.4558823529411765</v>
+        <v>0.45588235294117652</v>
       </c>
       <c r="G186">
-        <v>0.5441176470588236</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>0.54411764705882359</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4691,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0.4927536231884059</v>
+        <v>0.49275362318840588</v>
       </c>
       <c r="G187">
-        <v>0.5072463768115942</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>0.50724637681159424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4714,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0.7115384615384615</v>
+        <v>0.71153846153846145</v>
       </c>
       <c r="G188">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4806,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0.6470588235294117</v>
+        <v>0.64705882352941169</v>
       </c>
       <c r="G192">
-        <v>0.3529411764705883</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>0.35294117647058831</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4835,7 +4853,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4852,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>0.6326530612244897</v>
+        <v>0.63265306122448972</v>
       </c>
       <c r="G194">
-        <v>0.3673469387755102</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>0.36734693877551022</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4875,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>0.2307692307692308</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="G195">
-        <v>0.7692307692307692</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4898,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0.2575757575757576</v>
+        <v>0.25757575757575762</v>
       </c>
       <c r="G196">
-        <v>0.7424242424242425</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>0.74242424242424254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4921,13 +4939,13 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>0.2686567164179104</v>
+        <v>0.26865671641791039</v>
       </c>
       <c r="G197">
-        <v>0.7313432835820897</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>0.73134328358208966</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4944,13 +4962,13 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>0.2575757575757576</v>
+        <v>0.25757575757575762</v>
       </c>
       <c r="G198">
-        <v>0.7424242424242425</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>0.74242424242424254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4967,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0.4848484848484849</v>
+        <v>0.48484848484848492</v>
       </c>
       <c r="G199">
-        <v>0.5151515151515151</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>0.51515151515151514</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5013,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0.5151515151515151</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="G201">
-        <v>0.4848484848484848</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>0.48484848484848481</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>0.515625</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5082,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0.6862745098039216</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="G204">
-        <v>0.3137254901960784</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>0.31372549019607843</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5111,7 +5129,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5174,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0.3653846153846154</v>
+        <v>0.36538461538461542</v>
       </c>
       <c r="G208">
-        <v>0.6346153846153846</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>0.63461538461538458</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5197,13 +5215,13 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>0.346153846153846</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="G209">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5220,13 +5238,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>0.7115384615384615</v>
+        <v>0.71153846153846145</v>
       </c>
       <c r="G210">
-        <v>0.2884615384615385</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5289,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>0.2727272727272728</v>
+        <v>0.27272727272727282</v>
       </c>
       <c r="G213">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5312,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>0.2727272727272728</v>
+        <v>0.27272727272727282</v>
       </c>
       <c r="G214">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5335,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0.7037037037037037</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="G215">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5381,13 +5399,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0.6851851851851852</v>
+        <v>0.68518518518518523</v>
       </c>
       <c r="G217">
-        <v>0.3148148148148148</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>0.31481481481481483</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5404,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>0.6909090909090909</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="G218">
-        <v>0.3090909090909091</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>0.30909090909090908</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5427,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>0.2463768115942029</v>
+        <v>0.24637681159420291</v>
       </c>
       <c r="G219">
-        <v>0.7536231884057972</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5450,13 +5468,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>0.5588235294117647</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="G220">
-        <v>0.4411764705882353</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>0.44117647058823528</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5476,10 +5494,10 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="G221">
-        <v>0.4242424242424243</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>0.42424242424242431</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5499,10 +5517,10 @@
         <v>0.45</v>
       </c>
       <c r="G222">
-        <v>0.5499999999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5519,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>0.3818181818181818</v>
+        <v>0.38181818181818178</v>
       </c>
       <c r="G223">
-        <v>0.6181818181818182</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5542,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G224">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5565,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G225">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5657,13 +5675,13 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0.5686274509803921</v>
+        <v>0.56862745098039214</v>
       </c>
       <c r="G229">
-        <v>0.4313725490196078</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>0.43137254901960781</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5729,10 +5747,10 @@
         <v>0.4324324324324324</v>
       </c>
       <c r="G232">
-        <v>0.5675675675675675</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>0.56756756756756754</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5752,10 +5770,10 @@
         <v>0.72</v>
       </c>
       <c r="G233">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5841,13 +5859,13 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>0.611111111111111</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="G237">
-        <v>0.388888888888889</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>0.38888888888888901</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5864,13 +5882,13 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0.7037037037037037</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="G238">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5887,13 +5905,13 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>0.2769230769230769</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G239">
-        <v>0.7230769230769232</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>0.72307692307692317</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5910,13 +5928,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>0.803030303030303</v>
+        <v>0.80303030303030298</v>
       </c>
       <c r="G240">
-        <v>0.196969696969697</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>0.19696969696969699</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5933,13 +5951,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>0.5606060606060607</v>
+        <v>0.56060606060606066</v>
       </c>
       <c r="G241">
-        <v>0.4393939393939394</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>0.43939393939393939</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5956,13 +5974,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>0.2794117647058824</v>
+        <v>0.27941176470588241</v>
       </c>
       <c r="G242">
-        <v>0.7205882352941176</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>0.72058823529411764</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5979,13 +5997,13 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>0.2499999999999999</v>
+        <v>0.24999999999999989</v>
       </c>
       <c r="G243">
         <v>0.75</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6008,7 +6026,7 @@
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6025,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0.5857142857142857</v>
+        <v>0.58571428571428574</v>
       </c>
       <c r="G245">
-        <v>0.4142857142857143</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>0.41428571428571431</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6051,10 +6069,10 @@
         <v>0.4202898550724638</v>
       </c>
       <c r="G246">
-        <v>0.5797101449275363</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>0.57971014492753625</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6071,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>0.3088235294117647</v>
+        <v>0.30882352941176472</v>
       </c>
       <c r="G247">
-        <v>0.6911764705882354</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>0.69117647058823539</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6094,13 +6112,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>0.7536231884057972</v>
+        <v>0.75362318840579723</v>
       </c>
       <c r="G248">
-        <v>0.2463768115942029</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>0.24637681159420291</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6163,13 +6181,13 @@
         <v>1</v>
       </c>
       <c r="F251">
-        <v>0.631578947368421</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="G251">
-        <v>0.3684210526315789</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6186,13 +6204,13 @@
         <v>1</v>
       </c>
       <c r="F252">
-        <v>0.3013698630136986</v>
+        <v>0.30136986301369861</v>
       </c>
       <c r="G252">
-        <v>0.6986301369863014</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>0.69863013698630139</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6209,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>0.5066666666666667</v>
+        <v>0.50666666666666671</v>
       </c>
       <c r="G253">
-        <v>0.4933333333333333</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>0.49333333333333329</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6232,13 +6250,13 @@
         <v>1</v>
       </c>
       <c r="F254">
-        <v>0.3026315789473684</v>
+        <v>0.30263157894736842</v>
       </c>
       <c r="G254">
-        <v>0.6973684210526316</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>0.69736842105263164</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6278,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0.7402597402597402</v>
+        <v>0.74025974025974017</v>
       </c>
       <c r="G256">
-        <v>0.2597402597402597</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>0.25974025974025972</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6301,13 +6319,13 @@
         <v>1</v>
       </c>
       <c r="F257">
-        <v>0.2702702702702703</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="G257">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6324,13 +6342,13 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>0.2297297297297297</v>
+        <v>0.22972972972972969</v>
       </c>
       <c r="G258">
-        <v>0.7702702702702702</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>0.77027027027027017</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6347,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="F259">
-        <v>0.2432432432432433</v>
+        <v>0.24324324324324331</v>
       </c>
       <c r="G259">
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6416,13 +6434,13 @@
         <v>1</v>
       </c>
       <c r="F262">
-        <v>0.7662337662337663</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="G262">
-        <v>0.2337662337662338</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>0.23376623376623379</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6442,10 +6460,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G263">
-        <v>0.2857142857142858</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>0.28571428571428581</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6485,13 +6503,13 @@
         <v>1</v>
       </c>
       <c r="F265">
-        <v>0.4657534246575343</v>
+        <v>0.46575342465753428</v>
       </c>
       <c r="G265">
-        <v>0.5342465753424658</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>0.53424657534246578</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6557,10 +6575,10 @@
         <v>0.25</v>
       </c>
       <c r="G268">
-        <v>0.7500000000000001</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6583,7 +6601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6600,13 +6618,13 @@
         <v>1</v>
       </c>
       <c r="F270">
-        <v>0.4788732394366197</v>
+        <v>0.47887323943661969</v>
       </c>
       <c r="G270">
-        <v>0.5211267605633804</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>0.52112676056338036</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6623,13 +6641,13 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <v>0.4647887323943661</v>
+        <v>0.46478873239436608</v>
       </c>
       <c r="G271">
-        <v>0.5352112676056339</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>0.53521126760563387</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6646,13 +6664,13 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <v>0.2428571428571429</v>
+        <v>0.24285714285714291</v>
       </c>
       <c r="G272">
-        <v>0.7571428571428572</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+        <v>0.75714285714285723</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6669,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0.2962962962962963</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="G273">
-        <v>0.7037037037037037</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>0.70370370370370372</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6692,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>0.3333333333333334</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="G274">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6718,10 +6736,10 @@
         <v>0.339622641509434</v>
       </c>
       <c r="G275">
-        <v>0.6603773584905661</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>0.66037735849056611</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6738,13 +6756,13 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <v>0.4722222222222223</v>
+        <v>0.47222222222222232</v>
       </c>
       <c r="G276">
-        <v>0.5277777777777778</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6807,13 +6825,13 @@
         <v>1</v>
       </c>
       <c r="F279">
-        <v>0.673076923076923</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="G279">
-        <v>0.3269230769230769</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+        <v>0.32692307692307693</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6876,13 +6894,13 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>0.5588235294117647</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="G282">
-        <v>0.4411764705882353</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>0.44117647058823528</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6899,13 +6917,13 @@
         <v>1</v>
       </c>
       <c r="F283">
-        <v>0.6200000000000001</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="G283">
         <v>0.38</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6922,13 +6940,13 @@
         <v>1</v>
       </c>
       <c r="F284">
-        <v>0.3061224489795918</v>
+        <v>0.30612244897959179</v>
       </c>
       <c r="G284">
-        <v>0.6938775510204082</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+        <v>0.69387755102040816</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7037,13 +7055,13 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>0.653061224489796</v>
+        <v>0.65306122448979598</v>
       </c>
       <c r="G289">
-        <v>0.346938775510204</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>0.34693877551020402</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7066,7 +7084,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7083,13 +7101,13 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>0.723404255319149</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="G291">
-        <v>0.2765957446808511</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>0.27659574468085107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7129,13 +7147,13 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>0.6818181818181819</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="G293">
-        <v>0.3181818181818182</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7181,7 +7199,7 @@
         <v>0.5957446808510638</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7198,13 +7216,13 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0.391304347826087</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="G296">
-        <v>0.6086956521739131</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7244,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="F298">
-        <v>0.3114754098360656</v>
+        <v>0.31147540983606559</v>
       </c>
       <c r="G298">
-        <v>0.6885245901639344</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>0.68852459016393441</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>0.7384615384615385</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7382,13 +7400,13 @@
         <v>1</v>
       </c>
       <c r="F304">
-        <v>0.4923076923076923</v>
+        <v>0.49230769230769228</v>
       </c>
       <c r="G304">
-        <v>0.5076923076923078</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>0.50769230769230778</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7408,10 +7426,10 @@
         <v>0.2153846153846154</v>
       </c>
       <c r="G305">
-        <v>0.7846153846153845</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+        <v>0.78461538461538449</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7428,13 +7446,13 @@
         <v>1</v>
       </c>
       <c r="F306">
-        <v>0.2686567164179104</v>
+        <v>0.26865671641791039</v>
       </c>
       <c r="G306">
-        <v>0.7313432835820897</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+        <v>0.73134328358208966</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7451,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G307">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7474,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="F308">
-        <v>0.4925373134328359</v>
+        <v>0.49253731343283591</v>
       </c>
       <c r="G308">
         <v>0.5074626865671642</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7497,13 +7515,13 @@
         <v>1</v>
       </c>
       <c r="F309">
-        <v>0.5303030303030303</v>
+        <v>0.53030303030303028</v>
       </c>
       <c r="G309">
-        <v>0.4696969696969697</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>0.46969696969696972</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7520,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="F310">
-        <v>0.7500000000000001</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="G310">
         <v>0.25</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7546,10 +7564,10 @@
         <v>0.3461538461538462</v>
       </c>
       <c r="G311">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7566,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>0.6923076923076923</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="G312">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7589,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>0.3529411764705883</v>
+        <v>0.35294117647058831</v>
       </c>
       <c r="G313">
-        <v>0.6470588235294117</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>0.64705882352941169</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7658,13 +7676,13 @@
         <v>1</v>
       </c>
       <c r="F316">
-        <v>0.5428571428571428</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="G316">
-        <v>0.4571428571428571</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>0.45714285714285707</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7704,13 +7722,13 @@
         <v>1</v>
       </c>
       <c r="F318">
-        <v>0.5588235294117647</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="G318">
-        <v>0.4411764705882353</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>0.44117647058823528</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7727,13 +7745,13 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>0.5428571428571428</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="G319">
-        <v>0.4571428571428571</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+        <v>0.45714285714285707</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7750,13 +7768,13 @@
         <v>1</v>
       </c>
       <c r="F320">
-        <v>0.5142857142857143</v>
+        <v>0.51428571428571435</v>
       </c>
       <c r="G320">
-        <v>0.4857142857142857</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7796,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="F322">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="G322">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7819,13 +7837,13 @@
         <v>1</v>
       </c>
       <c r="F323">
-        <v>0.3269230769230769</v>
+        <v>0.32692307692307693</v>
       </c>
       <c r="G323">
-        <v>0.673076923076923</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>0.67307692307692302</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7845,10 +7863,10 @@
         <v>0.2388059701492537</v>
       </c>
       <c r="G324">
-        <v>0.7611940298507462</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>0.76119402985074625</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7891,10 +7909,10 @@
         <v>0.2318840579710145</v>
       </c>
       <c r="G326">
-        <v>0.7681159420289856</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>0.76811594202898559</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7917,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7934,13 +7952,13 @@
         <v>1</v>
       </c>
       <c r="F328">
-        <v>0.5428571428571428</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="G328">
-        <v>0.4571428571428571</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>0.45714285714285707</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7980,13 +7998,13 @@
         <v>1</v>
       </c>
       <c r="F330">
-        <v>0.5492957746478874</v>
+        <v>0.54929577464788737</v>
       </c>
       <c r="G330">
-        <v>0.4507042253521127</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>0.45070422535211269</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8003,13 +8021,13 @@
         <v>1</v>
       </c>
       <c r="F331">
-        <v>0.2173913043478261</v>
+        <v>0.21739130434782611</v>
       </c>
       <c r="G331">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8032,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8072,13 +8090,13 @@
         <v>1</v>
       </c>
       <c r="F334">
-        <v>0.7702702702702703</v>
+        <v>0.77027027027027029</v>
       </c>
       <c r="G334">
-        <v>0.2297297297297297</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>0.22972972972972969</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8095,13 +8113,13 @@
         <v>1</v>
       </c>
       <c r="F335">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G335">
         <v>0.2162162162162162</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8121,10 +8139,10 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="G336">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8141,13 +8159,13 @@
         <v>0</v>
       </c>
       <c r="F337">
-        <v>0.7671232876712329</v>
+        <v>0.76712328767123295</v>
       </c>
       <c r="G337">
-        <v>0.2328767123287671</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>0.23287671232876711</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8164,13 +8182,13 @@
         <v>1</v>
       </c>
       <c r="F338">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="G338">
-        <v>0.3055555555555555</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8187,13 +8205,13 @@
         <v>1</v>
       </c>
       <c r="F339">
-        <v>0.4657534246575342</v>
+        <v>0.46575342465753422</v>
       </c>
       <c r="G339">
-        <v>0.5342465753424658</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>0.53424657534246578</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8210,13 +8228,13 @@
         <v>1</v>
       </c>
       <c r="F340">
-        <v>0.4999999999999998</v>
+        <v>0.49999999999999978</v>
       </c>
       <c r="G340">
         <v>0.5</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8256,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="F342">
-        <v>0.2467532467532468</v>
+        <v>0.24675324675324681</v>
       </c>
       <c r="G342">
-        <v>0.7532467532467533</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>0.75324675324675328</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8279,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="F343">
-        <v>0.5324675324675325</v>
+        <v>0.53246753246753253</v>
       </c>
       <c r="G343">
-        <v>0.4675324675324675</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>0.46753246753246752</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8302,13 +8320,13 @@
         <v>1</v>
       </c>
       <c r="F344">
-        <v>0.2692307692307692</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="G344">
-        <v>0.7307692307692308</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+        <v>0.73076923076923084</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8325,13 +8343,13 @@
         <v>1</v>
       </c>
       <c r="F345">
-        <v>0.3508771929824562</v>
+        <v>0.35087719298245618</v>
       </c>
       <c r="G345">
-        <v>0.6491228070175439</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>0.64912280701754388</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8348,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>0.7017543859649124</v>
+        <v>0.70175438596491235</v>
       </c>
       <c r="G346">
         <v>0.2982456140350877</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8374,10 +8392,10 @@
         <v>0.3392857142857143</v>
       </c>
       <c r="G347">
-        <v>0.6607142857142858</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
+        <v>0.66071428571428581</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8400,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8417,13 +8435,13 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>0.4722222222222223</v>
+        <v>0.47222222222222232</v>
       </c>
       <c r="G349">
-        <v>0.5277777777777778</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>0.5405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="G350">
-        <v>0.4594594594594594</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>0.45945945945945937</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8469,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8486,13 +8504,13 @@
         <v>1</v>
       </c>
       <c r="F352">
-        <v>0.5526315789473685</v>
+        <v>0.55263157894736847</v>
       </c>
       <c r="G352">
-        <v>0.4473684210526316</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8561,7 +8579,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8581,10 +8599,10 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="G356">
-        <v>0.5714285714285715</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8607,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8739,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0.3863636363636364</v>
+        <v>0.38636363636363641</v>
       </c>
       <c r="G363">
-        <v>0.6136363636363638</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>0.61363636363636376</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="F364">
-        <v>0.6744186046511628</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="G364">
-        <v>0.3255813953488371</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>0.32558139534883712</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8785,13 +8803,13 @@
         <v>1</v>
       </c>
       <c r="F365">
-        <v>0.3414634146341464</v>
+        <v>0.34146341463414642</v>
       </c>
       <c r="G365">
-        <v>0.6585365853658537</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>0.65853658536585369</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8808,13 +8826,13 @@
         <v>1</v>
       </c>
       <c r="F366">
-        <v>0.3720930232558139</v>
+        <v>0.37209302325581389</v>
       </c>
       <c r="G366">
-        <v>0.6279069767441861</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>0.62790697674418605</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8831,13 +8849,13 @@
         <v>0</v>
       </c>
       <c r="F367">
-        <v>0.3111111111111111</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="G367">
-        <v>0.6888888888888889</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+        <v>0.68888888888888888</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8854,13 +8872,13 @@
         <v>1</v>
       </c>
       <c r="F368">
-        <v>0.6590909090909091</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="G368">
-        <v>0.3409090909090909</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
+        <v>0.34090909090909088</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8883,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8900,13 +8918,13 @@
         <v>1</v>
       </c>
       <c r="F370">
-        <v>0.6818181818181819</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="G370">
-        <v>0.3181818181818182</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8923,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>0.3720930232558139</v>
+        <v>0.37209302325581389</v>
       </c>
       <c r="G371">
-        <v>0.6279069767441861</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
+        <v>0.62790697674418605</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8969,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="F373">
-        <v>0.6956521739130435</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="G373">
-        <v>0.3043478260869565</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+        <v>0.30434782608695649</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8992,13 +9010,13 @@
         <v>1</v>
       </c>
       <c r="F374">
-        <v>0.3111111111111111</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="G374">
-        <v>0.6888888888888889</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
+        <v>0.68888888888888888</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>0.2807017543859649</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9064,10 +9082,10 @@
         <v>0.5423728813559322</v>
       </c>
       <c r="G377">
-        <v>0.4576271186440677</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>0.45762711864406769</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9090,7 +9108,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9130,13 +9148,13 @@
         <v>1</v>
       </c>
       <c r="F380">
-        <v>0.4745762711864407</v>
+        <v>0.47457627118644069</v>
       </c>
       <c r="G380">
-        <v>0.5254237288135594</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>0.52542372881355937</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9156,10 +9174,10 @@
         <v>0.3061224489795919</v>
       </c>
       <c r="G381">
-        <v>0.6938775510204082</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>0.69387755102040816</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9176,13 +9194,13 @@
         <v>0</v>
       </c>
       <c r="F382">
-        <v>0.6470588235294117</v>
+        <v>0.64705882352941169</v>
       </c>
       <c r="G382">
-        <v>0.3529411764705883</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+        <v>0.35294117647058831</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9199,13 +9217,13 @@
         <v>1</v>
       </c>
       <c r="F383">
-        <v>0.391304347826087</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="G383">
-        <v>0.6086956521739131</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9222,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="F384">
-        <v>0.3695652173913043</v>
+        <v>0.36956521739130432</v>
       </c>
       <c r="G384">
-        <v>0.6304347826086957</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>0.63043478260869568</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9245,13 +9263,13 @@
         <v>1</v>
       </c>
       <c r="F385">
-        <v>0.3777777777777779</v>
+        <v>0.37777777777777788</v>
       </c>
       <c r="G385">
-        <v>0.6222222222222222</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+        <v>0.62222222222222223</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9268,13 +9286,13 @@
         <v>1</v>
       </c>
       <c r="F386">
-        <v>0.6086956521739131</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="G386">
-        <v>0.391304347826087</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9314,13 +9332,13 @@
         <v>1</v>
       </c>
       <c r="F388">
-        <v>0.3673469387755102</v>
+        <v>0.36734693877551022</v>
       </c>
       <c r="G388">
-        <v>0.6326530612244897</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
+        <v>0.63265306122448972</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9337,13 +9355,13 @@
         <v>1</v>
       </c>
       <c r="F389">
-        <v>0.6938775510204082</v>
+        <v>0.69387755102040816</v>
       </c>
       <c r="G389">
         <v>0.3061224489795919</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9366,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9383,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="F391">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G391">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9406,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="F392">
-        <v>0.7538461538461541</v>
+        <v>0.75384615384615405</v>
       </c>
       <c r="G392">
         <v>0.2461538461538462</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9435,7 +9453,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9475,13 +9493,13 @@
         <v>0</v>
       </c>
       <c r="F395">
-        <v>0.540983606557377</v>
+        <v>0.54098360655737698</v>
       </c>
       <c r="G395">
-        <v>0.459016393442623</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
+        <v>0.45901639344262302</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9504,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9521,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="F397">
-        <v>0.253968253968254</v>
+        <v>0.25396825396825401</v>
       </c>
       <c r="G397">
-        <v>0.746031746031746</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+        <v>0.74603174603174605</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9544,13 +9562,13 @@
         <v>1</v>
       </c>
       <c r="F398">
-        <v>0.253968253968254</v>
+        <v>0.25396825396825401</v>
       </c>
       <c r="G398">
-        <v>0.746031746031746</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7">
+        <v>0.74603174603174605</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9573,7 +9591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9590,13 +9608,13 @@
         <v>1</v>
       </c>
       <c r="F400">
-        <v>0.2575757575757576</v>
+        <v>0.25757575757575762</v>
       </c>
       <c r="G400">
-        <v>0.7424242424242425</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.74242424242424254</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9613,13 +9631,13 @@
         <v>1</v>
       </c>
       <c r="F401">
-        <v>0.5147058823529411</v>
+        <v>0.51470588235294112</v>
       </c>
       <c r="G401">
-        <v>0.4852941176470588</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.48529411764705882</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9659,13 +9677,13 @@
         <v>1</v>
       </c>
       <c r="F403">
-        <v>0.3469387755102041</v>
+        <v>0.34693877551020408</v>
       </c>
       <c r="G403">
-        <v>0.653061224489796</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7">
+        <v>0.65306122448979598</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9682,13 +9700,13 @@
         <v>0</v>
       </c>
       <c r="F404">
-        <v>0.3469387755102041</v>
+        <v>0.34693877551020408</v>
       </c>
       <c r="G404">
-        <v>0.653061224489796</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7">
+        <v>0.65306122448979598</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9711,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9734,7 +9752,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9757,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9777,10 +9795,10 @@
         <v>0.34</v>
       </c>
       <c r="G408">
-        <v>0.6600000000000001</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7">
+        <v>0.66000000000000014</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9843,13 +9861,13 @@
         <v>1</v>
       </c>
       <c r="F411">
-        <v>0.5428571428571428</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="G411">
-        <v>0.4571428571428571</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7">
+        <v>0.45714285714285707</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9872,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9889,13 +9907,13 @@
         <v>0</v>
       </c>
       <c r="F413">
-        <v>0.6274509803921569</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="G413">
-        <v>0.3725490196078431</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.37254901960784309</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9912,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="F414">
-        <v>0.3269230769230769</v>
+        <v>0.32692307692307693</v>
       </c>
       <c r="G414">
-        <v>0.673076923076923</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+        <v>0.67307692307692302</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9935,13 +9953,13 @@
         <v>1</v>
       </c>
       <c r="F415">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G415">
-        <v>0.6923076923076923</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9964,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9987,7 +10005,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10010,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10027,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="F419">
-        <v>0.4411764705882353</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="G419">
-        <v>0.5588235294117647</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+        <v>0.55882352941176472</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10050,13 +10068,13 @@
         <v>0</v>
       </c>
       <c r="F420">
-        <v>0.6808510638297872</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="G420">
-        <v>0.3191489361702128</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+        <v>0.31914893617021278</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10073,13 +10091,13 @@
         <v>1</v>
       </c>
       <c r="F421">
-        <v>0.5151515151515151</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="G421">
-        <v>0.4848484848484849</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+        <v>0.48484848484848492</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10096,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="F422">
-        <v>0.5151515151515151</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="G422">
-        <v>0.4848484848484849</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
+        <v>0.48484848484848492</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10125,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10148,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10194,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10217,7 +10235,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10257,13 +10275,13 @@
         <v>1</v>
       </c>
       <c r="F429">
-        <v>0.3653846153846154</v>
+        <v>0.36538461538461542</v>
       </c>
       <c r="G429">
-        <v>0.6346153846153846</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7">
+        <v>0.63461538461538458</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10286,7 +10304,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10303,13 +10321,13 @@
         <v>1</v>
       </c>
       <c r="F431">
-        <v>0.7846153846153845</v>
+        <v>0.78461538461538449</v>
       </c>
       <c r="G431">
         <v>0.2153846153846154</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10326,13 +10344,13 @@
         <v>0</v>
       </c>
       <c r="F432">
-        <v>0.5294117647058824</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="G432">
-        <v>0.4705882352941176</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
+        <v>0.47058823529411759</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10355,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10378,7 +10396,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10395,13 +10413,13 @@
         <v>1</v>
       </c>
       <c r="F435">
-        <v>0.7101449275362319</v>
+        <v>0.71014492753623193</v>
       </c>
       <c r="G435">
-        <v>0.2898550724637681</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+        <v>0.28985507246376813</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10418,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="F436">
-        <v>0.2173913043478261</v>
+        <v>0.21739130434782611</v>
       </c>
       <c r="G436">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10470,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10490,10 +10508,10 @@
         <v>0.2394366197183099</v>
       </c>
       <c r="G439">
-        <v>0.7605633802816902</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7">
+        <v>0.76056338028169024</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10516,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10539,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10556,13 +10574,13 @@
         <v>1</v>
       </c>
       <c r="F442">
-        <v>0.7083333333333333</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="G442">
-        <v>0.2916666666666667</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10602,13 +10620,13 @@
         <v>0</v>
       </c>
       <c r="F444">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G444">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10631,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10648,13 +10666,13 @@
         <v>0</v>
       </c>
       <c r="F446">
-        <v>0.3773584905660378</v>
+        <v>0.37735849056603782</v>
       </c>
       <c r="G446">
-        <v>0.6226415094339622</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7">
+        <v>0.62264150943396224</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10671,13 +10689,13 @@
         <v>1</v>
       </c>
       <c r="F447">
-        <v>0.7169811320754718</v>
+        <v>0.71698113207547176</v>
       </c>
       <c r="G447">
-        <v>0.2830188679245283</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
+        <v>0.28301886792452829</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10694,13 +10712,13 @@
         <v>1</v>
       </c>
       <c r="F448">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G448">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10717,13 +10735,13 @@
         <v>1</v>
       </c>
       <c r="F449">
-        <v>0.5499999999999999</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="G449">
         <v>0.45</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10740,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="F450">
-        <v>0.5499999999999999</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="G450">
         <v>0.45</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10763,13 +10781,13 @@
         <v>0</v>
       </c>
       <c r="F451">
-        <v>0.5499999999999999</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="G451">
         <v>0.45</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10792,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10809,13 +10827,13 @@
         <v>0</v>
       </c>
       <c r="F453">
-        <v>0.5263157894736843</v>
+        <v>0.52631578947368429</v>
       </c>
       <c r="G453">
-        <v>0.4736842105263158</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
+        <v>0.47368421052631582</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10832,13 +10850,13 @@
         <v>1</v>
       </c>
       <c r="F454">
-        <v>0.4864864864864865</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="G454">
-        <v>0.5135135135135135</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7">
+        <v>0.51351351351351349</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10884,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10901,13 +10919,13 @@
         <v>1</v>
       </c>
       <c r="F457">
-        <v>0.2714285714285714</v>
+        <v>0.27142857142857141</v>
       </c>
       <c r="G457">
-        <v>0.7285714285714286</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
+        <v>0.72857142857142865</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10930,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10947,13 +10965,13 @@
         <v>1</v>
       </c>
       <c r="F459">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G459">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10976,7 +10994,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10993,13 +11011,13 @@
         <v>1</v>
       </c>
       <c r="F461">
-        <v>0.2769230769230769</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G461">
-        <v>0.7230769230769232</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
+        <v>0.72307692307692317</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11022,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11065,10 +11083,10 @@
         <v>0.25</v>
       </c>
       <c r="G464">
-        <v>0.7500000000000001</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11108,13 +11126,13 @@
         <v>1</v>
       </c>
       <c r="F466">
-        <v>0.2307692307692308</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="G466">
-        <v>0.7692307692307692</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11137,7 +11155,7 @@
         <v>0.484375</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11154,13 +11172,13 @@
         <v>1</v>
       </c>
       <c r="F468">
-        <v>0.2575757575757576</v>
+        <v>0.25757575757575762</v>
       </c>
       <c r="G468">
-        <v>0.7424242424242425</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
+        <v>0.74242424242424254</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11177,13 +11195,13 @@
         <v>0</v>
       </c>
       <c r="F469">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="G469">
-        <v>0.7058823529411764</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
+        <v>0.70588235294117641</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11200,13 +11218,13 @@
         <v>1</v>
       </c>
       <c r="F470">
-        <v>0.3137254901960784</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="G470">
-        <v>0.6862745098039216</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
+        <v>0.68627450980392157</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11229,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11246,13 +11264,13 @@
         <v>0</v>
       </c>
       <c r="F472">
-        <v>0.3137254901960784</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="G472">
-        <v>0.6862745098039216</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
+        <v>0.68627450980392157</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11269,13 +11287,13 @@
         <v>0</v>
       </c>
       <c r="F473">
-        <v>0.3265306122448979</v>
+        <v>0.32653061224489788</v>
       </c>
       <c r="G473">
-        <v>0.673469387755102</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
+        <v>0.67346938775510201</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11298,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11338,13 +11356,13 @@
         <v>1</v>
       </c>
       <c r="F476">
-        <v>0.4864864864864865</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="G476">
-        <v>0.5135135135135135</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7">
+        <v>0.51351351351351349</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11361,13 +11379,13 @@
         <v>0</v>
       </c>
       <c r="F477">
-        <v>0.4864864864864865</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="G477">
-        <v>0.5135135135135135</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7">
+        <v>0.51351351351351349</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11390,7 +11408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11407,13 +11425,13 @@
         <v>1</v>
       </c>
       <c r="F479">
-        <v>0.4857142857142857</v>
+        <v>0.48571428571428571</v>
       </c>
       <c r="G479">
-        <v>0.5142857142857143</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
+        <v>0.51428571428571435</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11430,13 +11448,13 @@
         <v>1</v>
       </c>
       <c r="F480">
-        <v>0.5277777777777778</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="G480">
-        <v>0.4722222222222223</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
+        <v>0.47222222222222232</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11453,13 +11471,13 @@
         <v>0</v>
       </c>
       <c r="F481">
-        <v>0.5405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="G481">
-        <v>0.4594594594594594</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
+        <v>0.45945945945945937</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11482,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11499,13 +11517,13 @@
         <v>1</v>
       </c>
       <c r="F483">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G483">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
+        <v>0.46153846153846162</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11528,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11551,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11574,7 +11592,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11597,7 +11615,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11617,10 +11635,10 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="G488">
-        <v>0.4925373134328359</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
+        <v>0.49253731343283591</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11637,13 +11655,13 @@
         <v>0</v>
       </c>
       <c r="F489">
-        <v>0.1791044776119403</v>
+        <v>0.17910447761194029</v>
       </c>
       <c r="G489">
-        <v>0.8208955223880597</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+        <v>0.82089552238805974</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11660,13 +11678,13 @@
         <v>0</v>
       </c>
       <c r="F490">
-        <v>0.5076923076923077</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="G490">
-        <v>0.4923076923076923</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
+        <v>0.49230769230769228</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11689,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11712,7 +11730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11729,13 +11747,13 @@
         <v>1</v>
       </c>
       <c r="F493">
-        <v>0.1935483870967742</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="G493">
-        <v>0.8064516129032259</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
+        <v>0.80645161290322587</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11758,7 +11776,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11781,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11804,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11821,13 +11839,13 @@
         <v>0</v>
       </c>
       <c r="F497">
-        <v>0.4923076923076924</v>
+        <v>0.49230769230769239</v>
       </c>
       <c r="G497">
-        <v>0.5076923076923077</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7">
+        <v>0.50769230769230766</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11850,7 +11868,7 @@
         <v>0.484375</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11867,13 +11885,13 @@
         <v>0</v>
       </c>
       <c r="F499">
-        <v>0.7538461538461538</v>
+        <v>0.75384615384615383</v>
       </c>
       <c r="G499">
         <v>0.2461538461538462</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11896,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11919,7 +11937,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11942,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11965,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11988,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -12005,13 +12023,13 @@
         <v>1</v>
       </c>
       <c r="F505">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="G505">
-        <v>0.6363636363636364</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -12034,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -12051,13 +12069,13 @@
         <v>1</v>
       </c>
       <c r="F507">
-        <v>0.7246376811594203</v>
+        <v>0.72463768115942029</v>
       </c>
       <c r="G507">
-        <v>0.2753623188405797</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+        <v>0.27536231884057971</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -12077,10 +12095,10 @@
         <v>0.2318840579710145</v>
       </c>
       <c r="G508">
-        <v>0.7681159420289855</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
+        <v>0.76811594202898548</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -12103,7 +12121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -12120,13 +12138,13 @@
         <v>0</v>
       </c>
       <c r="F510">
-        <v>0.7313432835820897</v>
+        <v>0.73134328358208966</v>
       </c>
       <c r="G510">
-        <v>0.2686567164179104</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
+        <v>0.26865671641791039</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -12149,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -12172,7 +12190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -12189,18 +12207,18 @@
         <v>0</v>
       </c>
       <c r="F513">
-        <v>0.4923076923076923</v>
+        <v>0.49230769230769228</v>
       </c>
       <c r="G513">
-        <v>0.5076923076923078</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7">
+        <v>0.50769230769230778</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -12212,18 +12230,18 @@
         <v>0</v>
       </c>
       <c r="F514">
-        <v>0.5079</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="G514">
-        <v>0.4921</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7">
+        <v>0.49209999999999998</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12241,12 +12259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12264,12 +12282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12287,12 +12305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12310,12 +12328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12333,12 +12351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12356,12 +12374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D521">
         <v>0</v>

--- a/firebase_data_from_spyEnsembleVSMO.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="747">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2606,7 +2612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2658,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2684,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2710,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2736,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2762,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2788,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2814,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2866,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2892,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2918,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2944,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2970,7 +2976,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2996,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3022,7 +3028,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3048,7 +3054,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3074,7 +3080,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3100,7 +3106,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3126,7 +3132,7 @@
         <v>0.5769230769230769</v>
       </c>
       <c r="H20" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3152,7 +3158,7 @@
         <v>0.75</v>
       </c>
       <c r="H21" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3178,7 +3184,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H22" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3204,7 +3210,7 @@
         <v>0.6129032258064516</v>
       </c>
       <c r="H23" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3230,7 +3236,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3256,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3282,7 +3288,7 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="H26" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3308,7 +3314,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H27" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3334,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3360,7 +3366,7 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="H29" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3386,7 +3392,7 @@
         <v>0.2954545454545455</v>
       </c>
       <c r="H30" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3412,7 +3418,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H31" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3438,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3464,7 +3470,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H33" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3490,7 +3496,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H34" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3516,7 +3522,7 @@
         <v>0.7115384615384615</v>
       </c>
       <c r="H35" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3568,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3594,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3620,7 +3626,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H39" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3646,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3672,7 +3678,7 @@
         <v>0.6727272727272726</v>
       </c>
       <c r="H41" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3698,7 +3704,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H42" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3724,7 +3730,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H43" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3750,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3776,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3828,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3854,7 +3860,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H48" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3880,7 +3886,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3906,7 +3912,7 @@
         <v>0.6851851851851852</v>
       </c>
       <c r="H50" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3932,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3958,7 +3964,7 @@
         <v>0.3272727272727273</v>
       </c>
       <c r="H52" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3984,7 +3990,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H53" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4010,7 +4016,7 @@
         <v>0.3584905660377359</v>
       </c>
       <c r="H54" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4036,7 +4042,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H55" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4062,7 +4068,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H56" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4088,7 +4094,7 @@
         <v>0.5</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4114,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4140,7 +4146,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H59" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4166,7 +4172,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H60" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4192,7 +4198,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H61" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4218,7 +4224,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H62" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4244,7 +4250,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H63" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4270,7 +4276,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H64" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4296,7 +4302,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H65" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4322,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4348,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4374,7 +4380,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H68" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4400,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4426,7 +4432,7 @@
         <v>0.326530612244898</v>
       </c>
       <c r="H70" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4452,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4478,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4504,7 +4510,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H73" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4530,7 +4536,7 @@
         <v>0.66</v>
       </c>
       <c r="H74" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4556,7 +4562,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H75" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4582,7 +4588,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H76" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4608,7 +4614,7 @@
         <v>0.5</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4634,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4660,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4686,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4712,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4738,7 +4744,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H82" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4764,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4790,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4816,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4842,7 +4848,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H86" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4868,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4894,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4920,7 +4926,7 @@
         <v>0.5263157894736843</v>
       </c>
       <c r="H89" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4946,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4972,7 +4978,7 @@
         <v>0.660377358490566</v>
       </c>
       <c r="H91" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4998,7 +5004,7 @@
         <v>0.7358490566037736</v>
       </c>
       <c r="H92" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5024,7 +5030,7 @@
         <v>0.65</v>
       </c>
       <c r="H93" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5050,7 +5056,7 @@
         <v>0.4426229508196722</v>
       </c>
       <c r="H94" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5076,7 +5082,7 @@
         <v>0.2131147540983607</v>
       </c>
       <c r="H95" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5102,7 +5108,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H96" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5128,7 +5134,7 @@
         <v>0.7903225806451615</v>
       </c>
       <c r="H97" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5154,7 +5160,7 @@
         <v>0.7936507936507937</v>
       </c>
       <c r="H98" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5180,7 +5186,7 @@
         <v>0.6415094339622642</v>
       </c>
       <c r="H99" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5206,7 +5212,7 @@
         <v>0.5849056603773586</v>
       </c>
       <c r="H100" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5232,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5258,7 +5264,7 @@
         <v>0.64</v>
       </c>
       <c r="H102" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5284,7 +5290,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H103" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5310,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5336,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5362,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5388,7 +5394,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5414,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5440,7 +5446,7 @@
         <v>0.7692307692307694</v>
       </c>
       <c r="H109" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5466,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5492,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5518,7 +5524,7 @@
         <v>0.7</v>
       </c>
       <c r="H112" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5544,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5570,7 +5576,7 @@
         <v>0.5</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5596,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5622,7 +5628,7 @@
         <v>0.72</v>
       </c>
       <c r="H116" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5648,7 +5654,7 @@
         <v>0.7662337662337663</v>
       </c>
       <c r="H117" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5674,7 +5680,7 @@
         <v>0.782051282051282</v>
       </c>
       <c r="H118" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5700,7 +5706,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H119" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5726,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5752,7 +5758,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H121" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5778,7 +5784,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H122" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5804,7 +5810,7 @@
         <v>0.4805194805194805</v>
       </c>
       <c r="H123" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5830,7 +5836,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H124" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5856,7 +5862,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H125" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5882,7 +5888,7 @@
         <v>0.25</v>
       </c>
       <c r="H126" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5908,7 +5914,7 @@
         <v>0.5</v>
       </c>
       <c r="H127" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5934,7 +5940,7 @@
         <v>0.2533333333333333</v>
       </c>
       <c r="H128" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5960,7 +5966,7 @@
         <v>0.2467532467532468</v>
       </c>
       <c r="H129" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5986,7 +5992,7 @@
         <v>0.5324675324675325</v>
       </c>
       <c r="H130" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6012,7 +6018,7 @@
         <v>0.6451612903225807</v>
       </c>
       <c r="H131" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6038,7 +6044,7 @@
         <v>0.6612903225806451</v>
       </c>
       <c r="H132" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6064,7 +6070,7 @@
         <v>0.5</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6090,7 +6096,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H134" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6116,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6142,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6168,7 +6174,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H137" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6194,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6220,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6246,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6272,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6298,7 +6304,7 @@
         <v>0.7192982456140351</v>
       </c>
       <c r="H142" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6324,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6350,7 +6356,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H144" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6376,7 +6382,7 @@
         <v>0.7323943661971832</v>
       </c>
       <c r="H145" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6402,7 +6408,7 @@
         <v>0.7971014492753623</v>
       </c>
       <c r="H146" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6428,7 +6434,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H147" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6454,7 +6460,7 @@
         <v>0.8115942028985508</v>
       </c>
       <c r="H148" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6480,7 +6486,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H149" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6506,7 +6512,7 @@
         <v>0.5</v>
       </c>
       <c r="H150" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6532,7 +6538,7 @@
         <v>0.3584905660377358</v>
       </c>
       <c r="H151" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6558,7 +6564,7 @@
         <v>0.4769230769230768</v>
       </c>
       <c r="H152" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6584,7 +6590,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H153" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6610,7 +6616,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H154" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6636,7 +6642,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H155" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6662,7 +6668,7 @@
         <v>0.803030303030303</v>
       </c>
       <c r="H156" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6688,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6714,7 +6720,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H158" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6740,7 +6746,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H159" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6766,7 +6772,7 @@
         <v>0.68</v>
       </c>
       <c r="H160" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6792,7 +6798,7 @@
         <v>0.7647058823529413</v>
       </c>
       <c r="H161" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6818,7 +6824,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H162" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6844,7 +6850,7 @@
         <v>0.5362318840579711</v>
       </c>
       <c r="H163" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6870,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6896,7 +6902,7 @@
         <v>0.2285714285714286</v>
       </c>
       <c r="H165" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6922,7 +6928,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H166" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6948,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6974,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7000,7 +7006,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H169" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7026,7 +7032,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H170" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7052,7 +7058,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H171" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7078,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7104,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7130,7 +7136,7 @@
         <v>0.625</v>
       </c>
       <c r="H174" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7156,7 +7162,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H175" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7182,7 +7188,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H176" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7208,7 +7214,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H177" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7234,7 +7240,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H178" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7260,7 +7266,7 @@
         <v>0.726027397260274</v>
       </c>
       <c r="H179" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7286,7 +7292,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H180" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7312,7 +7318,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7338,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7364,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7390,7 +7396,7 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="H184" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7416,7 +7422,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H185" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7442,7 +7448,7 @@
         <v>0.5441176470588236</v>
       </c>
       <c r="H186" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7468,7 +7474,7 @@
         <v>0.5072463768115942</v>
       </c>
       <c r="H187" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7494,7 +7500,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H188" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7520,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7546,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7572,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7598,7 +7604,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H192" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7624,7 +7630,7 @@
         <v>0.75</v>
       </c>
       <c r="H193" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7650,7 +7656,7 @@
         <v>0.3673469387755102</v>
       </c>
       <c r="H194" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7676,7 +7682,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H195" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7702,7 +7708,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H196" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7728,7 +7734,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H197" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7754,7 +7760,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H198" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7780,7 +7786,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H199" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7806,7 +7812,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7832,7 +7838,7 @@
         <v>0.4848484848484848</v>
       </c>
       <c r="H201" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7858,7 +7864,7 @@
         <v>0.515625</v>
       </c>
       <c r="H202" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7884,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7910,7 +7916,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H204" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7936,7 +7942,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7962,7 +7968,7 @@
         <v>0.3</v>
       </c>
       <c r="H206" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7988,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8014,7 +8020,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H208" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8040,7 +8046,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H209" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8066,7 +8072,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H210" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8092,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8118,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8144,7 +8150,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H213" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8170,7 +8176,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H214" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8196,7 +8202,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H215" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8222,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8248,7 +8254,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H217" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8274,7 +8280,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H218" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8300,7 +8306,7 @@
         <v>0.7536231884057972</v>
       </c>
       <c r="H219" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8326,7 +8332,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H220" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8352,7 +8358,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="H221" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8378,7 +8384,7 @@
         <v>0.5499999999999999</v>
       </c>
       <c r="H222" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8404,7 +8410,7 @@
         <v>0.6181818181818182</v>
       </c>
       <c r="H223" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8430,7 +8436,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H224" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8456,7 +8462,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H225" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8482,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8508,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8534,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8560,7 +8566,7 @@
         <v>0.4313725490196078</v>
       </c>
       <c r="H229" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8586,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8612,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8638,7 +8644,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H232" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8664,7 +8670,7 @@
         <v>0.28</v>
       </c>
       <c r="H233" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8690,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8716,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8742,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8768,7 +8774,7 @@
         <v>0.388888888888889</v>
       </c>
       <c r="H237" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8794,7 +8800,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H238" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8820,7 +8826,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H239" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8846,7 +8852,7 @@
         <v>0.196969696969697</v>
       </c>
       <c r="H240" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8872,7 +8878,7 @@
         <v>0.4393939393939394</v>
       </c>
       <c r="H241" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8898,7 +8904,7 @@
         <v>0.7205882352941176</v>
       </c>
       <c r="H242" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8924,7 +8930,7 @@
         <v>0.75</v>
       </c>
       <c r="H243" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8950,7 +8956,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H244" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8976,7 +8982,7 @@
         <v>0.4142857142857143</v>
       </c>
       <c r="H245" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9002,7 +9008,7 @@
         <v>0.5797101449275363</v>
       </c>
       <c r="H246" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9028,7 +9034,7 @@
         <v>0.6911764705882354</v>
       </c>
       <c r="H247" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9054,7 +9060,7 @@
         <v>0.2463768115942029</v>
       </c>
       <c r="H248" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9080,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9106,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9132,7 +9138,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H251" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9158,7 +9164,7 @@
         <v>0.6986301369863014</v>
       </c>
       <c r="H252" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9184,7 +9190,7 @@
         <v>0.4933333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9210,7 +9216,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H254" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9236,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9262,7 +9268,7 @@
         <v>0.2597402597402597</v>
       </c>
       <c r="H256" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9288,7 +9294,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H257" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9314,7 +9320,7 @@
         <v>0.7702702702702702</v>
       </c>
       <c r="H258" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9340,7 +9346,7 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="H259" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9366,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9392,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9418,7 +9424,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H262" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9444,7 +9450,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="H263" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9470,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9496,7 +9502,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H265" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9522,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9548,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9574,7 +9580,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H268" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9600,7 +9606,7 @@
         <v>0.5</v>
       </c>
       <c r="H269" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9626,7 +9632,7 @@
         <v>0.5211267605633804</v>
       </c>
       <c r="H270" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9652,7 +9658,7 @@
         <v>0.5352112676056339</v>
       </c>
       <c r="H271" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9678,7 +9684,7 @@
         <v>0.7571428571428572</v>
       </c>
       <c r="H272" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9704,7 +9710,7 @@
         <v>0.7037037037037037</v>
       </c>
       <c r="H273" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9730,7 +9736,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H274" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9756,7 +9762,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H275" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9782,7 +9788,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H276" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9808,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9834,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9860,7 +9866,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H279" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9886,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9912,7 +9918,7 @@
         <v>0.32</v>
       </c>
       <c r="H281" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9938,7 +9944,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H282" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9964,7 +9970,7 @@
         <v>0.38</v>
       </c>
       <c r="H283" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9990,7 +9996,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H284" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10016,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10042,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10068,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10094,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10120,7 +10126,7 @@
         <v>0.346938775510204</v>
       </c>
       <c r="H289" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10146,7 +10152,7 @@
         <v>0.4838709677419355</v>
       </c>
       <c r="H290" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10172,7 +10178,7 @@
         <v>0.2765957446808511</v>
       </c>
       <c r="H291" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10198,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10224,7 +10230,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H293" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10250,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10276,7 +10282,7 @@
         <v>0.5957446808510638</v>
       </c>
       <c r="H295" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10302,7 +10308,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H296" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10328,7 +10334,7 @@
         <v>0.40625</v>
       </c>
       <c r="H297" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10354,7 +10360,7 @@
         <v>0.6885245901639344</v>
       </c>
       <c r="H298" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10380,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10406,7 +10412,7 @@
         <v>0.734375</v>
       </c>
       <c r="H300" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10432,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10458,7 +10464,7 @@
         <v>0.734375</v>
       </c>
       <c r="H302" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10484,7 +10490,7 @@
         <v>0.7384615384615385</v>
       </c>
       <c r="H303" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10510,7 +10516,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H304" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10536,7 +10542,7 @@
         <v>0.7846153846153845</v>
       </c>
       <c r="H305" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10562,7 +10568,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H306" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10588,7 +10594,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H307" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10614,7 +10620,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H308" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10640,7 +10646,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="H309" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10666,7 +10672,7 @@
         <v>0.25</v>
       </c>
       <c r="H310" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10692,7 +10698,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H311" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10718,7 +10724,7 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="H312" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10744,7 +10750,7 @@
         <v>0.6470588235294117</v>
       </c>
       <c r="H313" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10770,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10796,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10822,7 +10828,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H316" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10848,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10874,7 +10880,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H318" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10900,7 +10906,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H319" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10926,7 +10932,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H320" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10952,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10978,7 +10984,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H322" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11004,7 +11010,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H323" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11030,7 +11036,7 @@
         <v>0.7611940298507462</v>
       </c>
       <c r="H324" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11056,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11082,7 +11088,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H326" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11108,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11134,7 +11140,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H328" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11160,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11186,7 +11192,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H330" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11212,7 +11218,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H331" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11238,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11264,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11290,7 +11296,7 @@
         <v>0.2297297297297297</v>
       </c>
       <c r="H334" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11316,7 +11322,7 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="H335" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11342,7 +11348,7 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="H336" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11368,7 +11374,7 @@
         <v>0.2328767123287671</v>
       </c>
       <c r="H337" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11394,7 +11400,7 @@
         <v>0.3055555555555555</v>
       </c>
       <c r="H338" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11420,7 +11426,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H339" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11446,7 +11452,7 @@
         <v>0.5</v>
       </c>
       <c r="H340" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11472,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11498,7 +11504,7 @@
         <v>0.7532467532467533</v>
       </c>
       <c r="H342" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11524,7 +11530,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H343" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11550,7 +11556,7 @@
         <v>0.7307692307692308</v>
       </c>
       <c r="H344" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11576,7 +11582,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H345" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11602,7 +11608,7 @@
         <v>0.2982456140350877</v>
       </c>
       <c r="H346" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11628,7 +11634,7 @@
         <v>0.6607142857142858</v>
       </c>
       <c r="H347" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11654,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11680,7 +11686,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H349" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11706,7 +11712,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H350" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11732,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11758,7 +11764,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H352" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11784,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11810,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11836,7 +11842,7 @@
         <v>0.6</v>
       </c>
       <c r="H355" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11862,7 +11868,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H356" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11888,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11914,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11940,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11966,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11992,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12018,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12044,7 +12050,7 @@
         <v>0.6136363636363638</v>
       </c>
       <c r="H363" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12070,7 +12076,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H364" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12096,7 +12102,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H365" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12122,7 +12128,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H366" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12148,7 +12154,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H367" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12174,7 +12180,7 @@
         <v>0.3409090909090909</v>
       </c>
       <c r="H368" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12200,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12226,7 +12232,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H370" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12252,7 +12258,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H371" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12278,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12304,7 +12310,7 @@
         <v>0.3043478260869565</v>
       </c>
       <c r="H373" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12330,7 +12336,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H374" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12356,7 +12362,7 @@
         <v>0.2807017543859649</v>
       </c>
       <c r="H375" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12382,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12408,7 +12414,7 @@
         <v>0.4576271186440677</v>
       </c>
       <c r="H377" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12434,7 +12440,7 @@
         <v>0.25</v>
       </c>
       <c r="H378" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12460,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12486,7 +12492,7 @@
         <v>0.5254237288135594</v>
       </c>
       <c r="H380" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12512,7 +12518,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H381" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12538,7 +12544,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H382" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12564,7 +12570,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H383" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12590,7 +12596,7 @@
         <v>0.6304347826086957</v>
       </c>
       <c r="H384" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12616,7 +12622,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H385" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12642,7 +12648,7 @@
         <v>0.391304347826087</v>
       </c>
       <c r="H386" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12668,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12694,7 +12700,7 @@
         <v>0.6326530612244897</v>
       </c>
       <c r="H388" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12720,7 +12726,7 @@
         <v>0.3061224489795919</v>
       </c>
       <c r="H389" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12746,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12772,7 +12778,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H391" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12798,7 +12804,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H392" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12824,7 +12830,7 @@
         <v>0.734375</v>
       </c>
       <c r="H393" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12850,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12876,7 +12882,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H395" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12902,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12928,7 +12934,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H397" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12954,7 +12960,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H398" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12980,7 +12986,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13006,7 +13012,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H400" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13032,7 +13038,7 @@
         <v>0.4852941176470588</v>
       </c>
       <c r="H401" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13058,7 +13064,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13084,7 +13090,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H403" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13110,7 +13116,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H404" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13136,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13162,7 +13168,7 @@
         <v>0.7</v>
       </c>
       <c r="H406" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13188,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13214,7 +13220,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="H408" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13240,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13266,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13292,7 +13298,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H411" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13318,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13344,7 +13350,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H413" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13370,7 +13376,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H414" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13396,7 +13402,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H415" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13422,7 +13428,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13448,7 +13454,7 @@
         <v>0.3</v>
       </c>
       <c r="H417" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13474,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13500,7 +13506,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="H419" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13526,7 +13532,7 @@
         <v>0.3191489361702128</v>
       </c>
       <c r="H420" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13552,7 +13558,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H421" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13578,7 +13584,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H422" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13604,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13630,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13656,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13682,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13708,7 +13714,7 @@
         <v>0.62</v>
       </c>
       <c r="H427" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13734,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13760,7 +13766,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H429" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13786,7 +13792,7 @@
         <v>0.71875</v>
       </c>
       <c r="H430" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13812,7 +13818,7 @@
         <v>0.2153846153846154</v>
       </c>
       <c r="H431" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13838,7 +13844,7 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="H432" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13864,7 +13870,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13890,7 +13896,7 @@
         <v>0.5</v>
       </c>
       <c r="H434" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13916,7 +13922,7 @@
         <v>0.2898550724637681</v>
       </c>
       <c r="H435" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13942,7 +13948,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H436" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13968,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13994,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14020,7 +14026,7 @@
         <v>0.7605633802816902</v>
       </c>
       <c r="H439" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14046,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14072,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14098,7 +14104,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14124,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14150,7 +14156,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14176,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14202,7 +14208,7 @@
         <v>0.6226415094339622</v>
       </c>
       <c r="H446" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14228,7 +14234,7 @@
         <v>0.2830188679245283</v>
       </c>
       <c r="H447" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14254,7 +14260,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H448" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14280,7 +14286,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14306,7 +14312,7 @@
         <v>0.45</v>
       </c>
       <c r="H450" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14332,7 +14338,7 @@
         <v>0.45</v>
       </c>
       <c r="H451" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14358,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14384,7 +14390,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H453" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14410,7 +14416,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H454" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14436,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14462,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14488,7 +14494,7 @@
         <v>0.7285714285714286</v>
       </c>
       <c r="H457" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14514,7 +14520,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14540,7 +14546,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H459" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14566,7 +14572,7 @@
         <v>0.2</v>
       </c>
       <c r="H460" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14592,7 +14598,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H461" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14618,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14644,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14670,7 +14676,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H464" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14696,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14722,7 +14728,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H466" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14748,7 +14754,7 @@
         <v>0.484375</v>
       </c>
       <c r="H467" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14774,7 +14780,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H468" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14800,7 +14806,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H469" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14826,7 +14832,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H470" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14852,7 +14858,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14878,7 +14884,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H472" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14904,7 +14910,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H473" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14930,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14956,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14982,7 +14988,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H476" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15008,7 +15014,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H477" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15034,7 +15040,7 @@
         <v>0.5</v>
       </c>
       <c r="H478" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15060,7 +15066,7 @@
         <v>0.5142857142857143</v>
       </c>
       <c r="H479" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15086,7 +15092,7 @@
         <v>0.4722222222222223</v>
       </c>
       <c r="H480" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15112,7 +15118,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H481" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15138,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15164,7 +15170,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H483" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15190,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15216,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15242,7 +15248,7 @@
         <v>0.8125</v>
       </c>
       <c r="H486" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15268,7 +15274,7 @@
         <v>0.8125</v>
       </c>
       <c r="H487" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15294,7 +15300,7 @@
         <v>0.4925373134328359</v>
       </c>
       <c r="H488" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15320,7 +15326,7 @@
         <v>0.8208955223880597</v>
       </c>
       <c r="H489" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15346,7 +15352,7 @@
         <v>0.4923076923076923</v>
       </c>
       <c r="H490" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15372,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15398,7 +15404,7 @@
         <v>0.5</v>
       </c>
       <c r="H492" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15424,7 +15430,7 @@
         <v>0.8064516129032259</v>
       </c>
       <c r="H493" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15450,7 +15456,7 @@
         <v>0.40625</v>
       </c>
       <c r="H494" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15476,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15502,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15528,7 +15534,7 @@
         <v>0.5076923076923077</v>
       </c>
       <c r="H497" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15554,7 +15560,7 @@
         <v>0.484375</v>
       </c>
       <c r="H498" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15580,7 +15586,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H499" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15606,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15632,7 +15638,7 @@
         <v>0.62</v>
       </c>
       <c r="H501" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15658,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15684,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15710,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15736,7 +15742,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H505" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15762,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15788,7 +15794,7 @@
         <v>0.2753623188405797</v>
       </c>
       <c r="H507" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15814,7 +15820,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H508" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15840,7 +15846,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15866,7 +15872,7 @@
         <v>0.2686567164179104</v>
       </c>
       <c r="H510" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15892,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15918,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15944,7 +15950,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H513" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15970,7 +15976,7 @@
         <v>0.4921</v>
       </c>
       <c r="H514" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15996,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16022,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16048,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16074,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16100,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16126,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16152,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16178,7 +16184,7 @@
         <v>0.3478</v>
       </c>
       <c r="H522" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16204,7 +16210,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16230,7 +16236,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16256,7 +16262,7 @@
         <v>0.7667</v>
       </c>
       <c r="H525" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16282,7 +16288,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16308,7 +16314,7 @@
         <v>0.5077</v>
       </c>
       <c r="H527" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16334,7 +16340,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16360,7 +16366,7 @@
         <v>0.25</v>
       </c>
       <c r="H529" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16386,7 +16392,7 @@
         <v>0.4839</v>
       </c>
       <c r="H530" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16412,7 +16418,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16438,7 +16444,7 @@
         <v>0.5152</v>
       </c>
       <c r="H532" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16464,7 +16470,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16490,7 +16496,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16516,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16542,7 +16548,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16568,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16594,7 +16600,7 @@
         <v>0.5484</v>
       </c>
       <c r="H538" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16620,7 +16626,7 @@
         <v>0.5312</v>
       </c>
       <c r="H539" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16646,7 +16652,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16672,7 +16678,7 @@
         <v>0.5312</v>
       </c>
       <c r="H541" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16698,7 +16704,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16724,7 +16730,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16750,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16776,7 +16782,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16802,7 +16808,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H546" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16828,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16854,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16880,7 +16886,7 @@
         <v>0.6522</v>
       </c>
       <c r="H549" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16906,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16932,7 +16938,7 @@
         <v>0.6522</v>
       </c>
       <c r="H551" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16958,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16984,7 +16990,7 @@
         <v>0.6808999999999998</v>
       </c>
       <c r="H553" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17010,7 +17016,7 @@
         <v>0.6957</v>
       </c>
       <c r="H554" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17036,7 +17042,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17062,7 +17068,7 @@
         <v>0.6818</v>
       </c>
       <c r="H556" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17088,7 +17094,7 @@
         <v>0.6512</v>
       </c>
       <c r="H557" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17114,7 +17120,7 @@
         <v>0.7458</v>
       </c>
       <c r="H558" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17140,7 +17146,7 @@
         <v>0.7288</v>
       </c>
       <c r="H559" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17166,7 +17172,7 @@
         <v>0.6522</v>
       </c>
       <c r="H560" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17192,7 +17198,7 @@
         <v>0.6522</v>
       </c>
       <c r="H561" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17202,9 +17208,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>1</v>
       </c>
@@ -17212,7 +17224,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="F564">
+        <v>0.3191</v>
+      </c>
+      <c r="G564">
+        <v>0.6808999999999998</v>
+      </c>
+      <c r="H564" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="751">
   <si>
     <t>date</t>
   </si>
@@ -1726,6 +1726,12 @@
     <t>2025-08-27</t>
   </si>
   <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -2255,6 +2261,12 @@
   </si>
   <si>
     <t>72.88</t>
+  </si>
+  <si>
+    <t>75.44</t>
+  </si>
+  <si>
+    <t>56.67</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2664,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2690,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2716,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2742,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2768,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2794,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2820,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2846,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2872,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2898,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2924,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2950,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2976,7 +2988,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3002,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3028,7 +3040,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3054,7 +3066,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3080,7 +3092,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3106,7 +3118,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3132,7 +3144,7 @@
         <v>0.5769230769230769</v>
       </c>
       <c r="H20" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3158,7 +3170,7 @@
         <v>0.75</v>
       </c>
       <c r="H21" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3184,7 +3196,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3210,7 +3222,7 @@
         <v>0.6129032258064516</v>
       </c>
       <c r="H23" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3236,7 +3248,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H24" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3262,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3288,7 +3300,7 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="H26" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3314,7 +3326,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H27" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3340,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3366,7 +3378,7 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="H29" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3392,7 +3404,7 @@
         <v>0.2954545454545455</v>
       </c>
       <c r="H30" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3418,7 +3430,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H31" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3444,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3470,7 +3482,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H33" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3496,7 +3508,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H34" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3522,7 +3534,7 @@
         <v>0.7115384615384615</v>
       </c>
       <c r="H35" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3548,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3574,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3600,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3626,7 +3638,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H39" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3652,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3678,7 +3690,7 @@
         <v>0.6727272727272726</v>
       </c>
       <c r="H41" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3704,7 +3716,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H42" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3730,7 +3742,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H43" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3756,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3782,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3808,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3834,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3860,7 +3872,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H48" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3886,7 +3898,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3912,7 +3924,7 @@
         <v>0.6851851851851852</v>
       </c>
       <c r="H50" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3938,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3964,7 +3976,7 @@
         <v>0.3272727272727273</v>
       </c>
       <c r="H52" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3990,7 +4002,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H53" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4016,7 +4028,7 @@
         <v>0.3584905660377359</v>
       </c>
       <c r="H54" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4042,7 +4054,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H55" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4068,7 +4080,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H56" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4094,7 +4106,7 @@
         <v>0.5</v>
       </c>
       <c r="H57" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4120,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4146,7 +4158,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H59" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4172,7 +4184,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H60" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4198,7 +4210,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H61" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4224,7 +4236,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H62" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4250,7 +4262,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H63" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4276,7 +4288,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4302,7 +4314,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H65" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4328,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4354,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4380,7 +4392,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H68" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4406,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4432,7 +4444,7 @@
         <v>0.326530612244898</v>
       </c>
       <c r="H70" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4458,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4484,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4510,7 +4522,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H73" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4536,7 +4548,7 @@
         <v>0.66</v>
       </c>
       <c r="H74" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4562,7 +4574,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H75" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4588,7 +4600,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H76" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4614,7 +4626,7 @@
         <v>0.5</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4640,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4666,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4692,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4718,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4744,7 +4756,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H82" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4770,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4796,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4822,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4848,7 +4860,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H86" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4874,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4900,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4926,7 +4938,7 @@
         <v>0.5263157894736843</v>
       </c>
       <c r="H89" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4952,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4978,7 +4990,7 @@
         <v>0.660377358490566</v>
       </c>
       <c r="H91" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5004,7 +5016,7 @@
         <v>0.7358490566037736</v>
       </c>
       <c r="H92" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5030,7 +5042,7 @@
         <v>0.65</v>
       </c>
       <c r="H93" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5056,7 +5068,7 @@
         <v>0.4426229508196722</v>
       </c>
       <c r="H94" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5082,7 +5094,7 @@
         <v>0.2131147540983607</v>
       </c>
       <c r="H95" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5108,7 +5120,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H96" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5134,7 +5146,7 @@
         <v>0.7903225806451615</v>
       </c>
       <c r="H97" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5160,7 +5172,7 @@
         <v>0.7936507936507937</v>
       </c>
       <c r="H98" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5186,7 +5198,7 @@
         <v>0.6415094339622642</v>
       </c>
       <c r="H99" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5212,7 +5224,7 @@
         <v>0.5849056603773586</v>
       </c>
       <c r="H100" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5238,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5264,7 +5276,7 @@
         <v>0.64</v>
       </c>
       <c r="H102" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5290,7 +5302,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H103" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5316,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5342,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5368,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5394,7 +5406,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5420,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5446,7 +5458,7 @@
         <v>0.7692307692307694</v>
       </c>
       <c r="H109" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5472,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5498,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5524,7 +5536,7 @@
         <v>0.7</v>
       </c>
       <c r="H112" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5550,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5576,7 +5588,7 @@
         <v>0.5</v>
       </c>
       <c r="H114" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5602,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5628,7 +5640,7 @@
         <v>0.72</v>
       </c>
       <c r="H116" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5654,7 +5666,7 @@
         <v>0.7662337662337663</v>
       </c>
       <c r="H117" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5680,7 +5692,7 @@
         <v>0.782051282051282</v>
       </c>
       <c r="H118" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5706,7 +5718,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H119" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5732,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5758,7 +5770,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H121" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5784,7 +5796,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H122" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5810,7 +5822,7 @@
         <v>0.4805194805194805</v>
       </c>
       <c r="H123" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5836,7 +5848,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H124" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5862,7 +5874,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H125" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5888,7 +5900,7 @@
         <v>0.25</v>
       </c>
       <c r="H126" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5914,7 +5926,7 @@
         <v>0.5</v>
       </c>
       <c r="H127" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5940,7 +5952,7 @@
         <v>0.2533333333333333</v>
       </c>
       <c r="H128" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5966,7 +5978,7 @@
         <v>0.2467532467532468</v>
       </c>
       <c r="H129" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5992,7 +6004,7 @@
         <v>0.5324675324675325</v>
       </c>
       <c r="H130" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6018,7 +6030,7 @@
         <v>0.6451612903225807</v>
       </c>
       <c r="H131" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6044,7 +6056,7 @@
         <v>0.6612903225806451</v>
       </c>
       <c r="H132" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6070,7 +6082,7 @@
         <v>0.5</v>
       </c>
       <c r="H133" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6096,7 +6108,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H134" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6122,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6148,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6174,7 +6186,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H137" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6200,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6226,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6252,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6278,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6304,7 +6316,7 @@
         <v>0.7192982456140351</v>
       </c>
       <c r="H142" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6330,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6356,7 +6368,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H144" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6382,7 +6394,7 @@
         <v>0.7323943661971832</v>
       </c>
       <c r="H145" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6408,7 +6420,7 @@
         <v>0.7971014492753623</v>
       </c>
       <c r="H146" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6434,7 +6446,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H147" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6460,7 +6472,7 @@
         <v>0.8115942028985508</v>
       </c>
       <c r="H148" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6486,7 +6498,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H149" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6512,7 +6524,7 @@
         <v>0.5</v>
       </c>
       <c r="H150" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6538,7 +6550,7 @@
         <v>0.3584905660377358</v>
       </c>
       <c r="H151" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6564,7 +6576,7 @@
         <v>0.4769230769230768</v>
       </c>
       <c r="H152" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6590,7 +6602,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H153" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6616,7 +6628,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H154" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6642,7 +6654,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H155" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6668,7 +6680,7 @@
         <v>0.803030303030303</v>
       </c>
       <c r="H156" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6694,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6720,7 +6732,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H158" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6746,7 +6758,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H159" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6772,7 +6784,7 @@
         <v>0.68</v>
       </c>
       <c r="H160" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6798,7 +6810,7 @@
         <v>0.7647058823529413</v>
       </c>
       <c r="H161" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6824,7 +6836,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H162" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6850,7 +6862,7 @@
         <v>0.5362318840579711</v>
       </c>
       <c r="H163" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6876,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6902,7 +6914,7 @@
         <v>0.2285714285714286</v>
       </c>
       <c r="H165" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6928,7 +6940,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H166" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6954,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6980,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7006,7 +7018,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H169" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7032,7 +7044,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H170" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7058,7 +7070,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H171" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7084,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7110,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7136,7 +7148,7 @@
         <v>0.625</v>
       </c>
       <c r="H174" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7162,7 +7174,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H175" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7188,7 +7200,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H176" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7214,7 +7226,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H177" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7240,7 +7252,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H178" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7266,7 +7278,7 @@
         <v>0.726027397260274</v>
       </c>
       <c r="H179" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7292,7 +7304,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H180" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7318,7 +7330,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7344,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7370,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7396,7 +7408,7 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="H184" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7422,7 +7434,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H185" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7448,7 +7460,7 @@
         <v>0.5441176470588236</v>
       </c>
       <c r="H186" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7474,7 +7486,7 @@
         <v>0.5072463768115942</v>
       </c>
       <c r="H187" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7500,7 +7512,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H188" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7526,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7552,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7578,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7604,7 +7616,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H192" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7630,7 +7642,7 @@
         <v>0.75</v>
       </c>
       <c r="H193" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7656,7 +7668,7 @@
         <v>0.3673469387755102</v>
       </c>
       <c r="H194" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7682,7 +7694,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H195" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7708,7 +7720,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H196" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7734,7 +7746,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H197" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7760,7 +7772,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H198" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7786,7 +7798,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H199" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7812,7 +7824,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7838,7 +7850,7 @@
         <v>0.4848484848484848</v>
       </c>
       <c r="H201" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7864,7 +7876,7 @@
         <v>0.515625</v>
       </c>
       <c r="H202" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7890,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7916,7 +7928,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H204" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7942,7 +7954,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7968,7 +7980,7 @@
         <v>0.3</v>
       </c>
       <c r="H206" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7994,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8020,7 +8032,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H208" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8046,7 +8058,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H209" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8072,7 +8084,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H210" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8098,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8124,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8150,7 +8162,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H213" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8176,7 +8188,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H214" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8202,7 +8214,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H215" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8228,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8254,7 +8266,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H217" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8280,7 +8292,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H218" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8306,7 +8318,7 @@
         <v>0.7536231884057972</v>
       </c>
       <c r="H219" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8332,7 +8344,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H220" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8358,7 +8370,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="H221" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8384,7 +8396,7 @@
         <v>0.5499999999999999</v>
       </c>
       <c r="H222" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8410,7 +8422,7 @@
         <v>0.6181818181818182</v>
       </c>
       <c r="H223" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8436,7 +8448,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H224" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8462,7 +8474,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H225" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8488,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8514,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8540,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8566,7 +8578,7 @@
         <v>0.4313725490196078</v>
       </c>
       <c r="H229" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8592,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8618,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8644,7 +8656,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H232" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8670,7 +8682,7 @@
         <v>0.28</v>
       </c>
       <c r="H233" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8696,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8722,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8748,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8774,7 +8786,7 @@
         <v>0.388888888888889</v>
       </c>
       <c r="H237" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8800,7 +8812,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H238" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8826,7 +8838,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H239" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8852,7 +8864,7 @@
         <v>0.196969696969697</v>
       </c>
       <c r="H240" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8878,7 +8890,7 @@
         <v>0.4393939393939394</v>
       </c>
       <c r="H241" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8904,7 +8916,7 @@
         <v>0.7205882352941176</v>
       </c>
       <c r="H242" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8930,7 +8942,7 @@
         <v>0.75</v>
       </c>
       <c r="H243" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8956,7 +8968,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H244" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8982,7 +8994,7 @@
         <v>0.4142857142857143</v>
       </c>
       <c r="H245" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9008,7 +9020,7 @@
         <v>0.5797101449275363</v>
       </c>
       <c r="H246" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9034,7 +9046,7 @@
         <v>0.6911764705882354</v>
       </c>
       <c r="H247" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9060,7 +9072,7 @@
         <v>0.2463768115942029</v>
       </c>
       <c r="H248" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9086,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9112,7 +9124,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9138,7 +9150,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H251" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9164,7 +9176,7 @@
         <v>0.6986301369863014</v>
       </c>
       <c r="H252" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9190,7 +9202,7 @@
         <v>0.4933333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9216,7 +9228,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H254" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9242,7 +9254,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9268,7 +9280,7 @@
         <v>0.2597402597402597</v>
       </c>
       <c r="H256" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9294,7 +9306,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H257" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9320,7 +9332,7 @@
         <v>0.7702702702702702</v>
       </c>
       <c r="H258" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9346,7 +9358,7 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="H259" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9372,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9398,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9424,7 +9436,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H262" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9450,7 +9462,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="H263" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9476,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9502,7 +9514,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H265" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9528,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9554,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9580,7 +9592,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H268" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9606,7 +9618,7 @@
         <v>0.5</v>
       </c>
       <c r="H269" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9632,7 +9644,7 @@
         <v>0.5211267605633804</v>
       </c>
       <c r="H270" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9658,7 +9670,7 @@
         <v>0.5352112676056339</v>
       </c>
       <c r="H271" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9684,7 +9696,7 @@
         <v>0.7571428571428572</v>
       </c>
       <c r="H272" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9710,7 +9722,7 @@
         <v>0.7037037037037037</v>
       </c>
       <c r="H273" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9736,7 +9748,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H274" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9762,7 +9774,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H275" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9788,7 +9800,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H276" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9814,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9840,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9866,7 +9878,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H279" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9892,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9918,7 +9930,7 @@
         <v>0.32</v>
       </c>
       <c r="H281" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9944,7 +9956,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H282" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9970,7 +9982,7 @@
         <v>0.38</v>
       </c>
       <c r="H283" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9996,7 +10008,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H284" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10022,7 +10034,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10048,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10074,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10100,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10126,7 +10138,7 @@
         <v>0.346938775510204</v>
       </c>
       <c r="H289" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10152,7 +10164,7 @@
         <v>0.4838709677419355</v>
       </c>
       <c r="H290" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10178,7 +10190,7 @@
         <v>0.2765957446808511</v>
       </c>
       <c r="H291" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10204,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10230,7 +10242,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H293" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10256,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10282,7 +10294,7 @@
         <v>0.5957446808510638</v>
       </c>
       <c r="H295" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10308,7 +10320,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H296" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10334,7 +10346,7 @@
         <v>0.40625</v>
       </c>
       <c r="H297" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10360,7 +10372,7 @@
         <v>0.6885245901639344</v>
       </c>
       <c r="H298" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10386,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10412,7 +10424,7 @@
         <v>0.734375</v>
       </c>
       <c r="H300" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10438,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10464,7 +10476,7 @@
         <v>0.734375</v>
       </c>
       <c r="H302" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10490,7 +10502,7 @@
         <v>0.7384615384615385</v>
       </c>
       <c r="H303" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10516,7 +10528,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H304" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10542,7 +10554,7 @@
         <v>0.7846153846153845</v>
       </c>
       <c r="H305" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10568,7 +10580,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H306" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10594,7 +10606,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H307" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10620,7 +10632,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H308" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10646,7 +10658,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="H309" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10672,7 +10684,7 @@
         <v>0.25</v>
       </c>
       <c r="H310" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10698,7 +10710,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H311" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10724,7 +10736,7 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="H312" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10750,7 +10762,7 @@
         <v>0.6470588235294117</v>
       </c>
       <c r="H313" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10776,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10802,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10828,7 +10840,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H316" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10854,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10880,7 +10892,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H318" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10906,7 +10918,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H319" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10932,7 +10944,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H320" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10958,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10984,7 +10996,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H322" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11010,7 +11022,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H323" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11036,7 +11048,7 @@
         <v>0.7611940298507462</v>
       </c>
       <c r="H324" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11062,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11088,7 +11100,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H326" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11114,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11140,7 +11152,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H328" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11166,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11192,7 +11204,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H330" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11218,7 +11230,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H331" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11244,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11270,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11296,7 +11308,7 @@
         <v>0.2297297297297297</v>
       </c>
       <c r="H334" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11322,7 +11334,7 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="H335" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11348,7 +11360,7 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="H336" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11374,7 +11386,7 @@
         <v>0.2328767123287671</v>
       </c>
       <c r="H337" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11400,7 +11412,7 @@
         <v>0.3055555555555555</v>
       </c>
       <c r="H338" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11426,7 +11438,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H339" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11452,7 +11464,7 @@
         <v>0.5</v>
       </c>
       <c r="H340" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11478,7 +11490,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11504,7 +11516,7 @@
         <v>0.7532467532467533</v>
       </c>
       <c r="H342" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11530,7 +11542,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H343" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11556,7 +11568,7 @@
         <v>0.7307692307692308</v>
       </c>
       <c r="H344" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11582,7 +11594,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H345" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11608,7 +11620,7 @@
         <v>0.2982456140350877</v>
       </c>
       <c r="H346" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11634,7 +11646,7 @@
         <v>0.6607142857142858</v>
       </c>
       <c r="H347" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11660,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11686,7 +11698,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H349" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11712,7 +11724,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H350" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11738,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11764,7 +11776,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H352" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11790,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11816,7 +11828,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11842,7 +11854,7 @@
         <v>0.6</v>
       </c>
       <c r="H355" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11868,7 +11880,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H356" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11894,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11920,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11946,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11972,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11998,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12024,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12050,7 +12062,7 @@
         <v>0.6136363636363638</v>
       </c>
       <c r="H363" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12076,7 +12088,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H364" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12102,7 +12114,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H365" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12128,7 +12140,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H366" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12154,7 +12166,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H367" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12180,7 +12192,7 @@
         <v>0.3409090909090909</v>
       </c>
       <c r="H368" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12206,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12232,7 +12244,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H370" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12258,7 +12270,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H371" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12284,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12310,7 +12322,7 @@
         <v>0.3043478260869565</v>
       </c>
       <c r="H373" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12336,7 +12348,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H374" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12362,7 +12374,7 @@
         <v>0.2807017543859649</v>
       </c>
       <c r="H375" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12388,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12414,7 +12426,7 @@
         <v>0.4576271186440677</v>
       </c>
       <c r="H377" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12440,7 +12452,7 @@
         <v>0.25</v>
       </c>
       <c r="H378" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12466,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12492,7 +12504,7 @@
         <v>0.5254237288135594</v>
       </c>
       <c r="H380" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12518,7 +12530,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H381" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12544,7 +12556,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H382" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12570,7 +12582,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H383" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12596,7 +12608,7 @@
         <v>0.6304347826086957</v>
       </c>
       <c r="H384" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12622,7 +12634,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H385" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12648,7 +12660,7 @@
         <v>0.391304347826087</v>
       </c>
       <c r="H386" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12674,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12700,7 +12712,7 @@
         <v>0.6326530612244897</v>
       </c>
       <c r="H388" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12726,7 +12738,7 @@
         <v>0.3061224489795919</v>
       </c>
       <c r="H389" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12752,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12778,7 +12790,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H391" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12804,7 +12816,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H392" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12830,7 +12842,7 @@
         <v>0.734375</v>
       </c>
       <c r="H393" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12856,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12882,7 +12894,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H395" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12908,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12934,7 +12946,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H397" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12960,7 +12972,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H398" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12986,7 +12998,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13012,7 +13024,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H400" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13038,7 +13050,7 @@
         <v>0.4852941176470588</v>
       </c>
       <c r="H401" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13064,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13090,7 +13102,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H403" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13116,7 +13128,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H404" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13142,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13168,7 +13180,7 @@
         <v>0.7</v>
       </c>
       <c r="H406" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13194,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13220,7 +13232,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="H408" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13246,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13272,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13298,7 +13310,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H411" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13324,7 +13336,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13350,7 +13362,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H413" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13376,7 +13388,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H414" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13402,7 +13414,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H415" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13428,7 +13440,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13454,7 +13466,7 @@
         <v>0.3</v>
       </c>
       <c r="H417" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13480,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13506,7 +13518,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="H419" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13532,7 +13544,7 @@
         <v>0.3191489361702128</v>
       </c>
       <c r="H420" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13558,7 +13570,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H421" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13584,7 +13596,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H422" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13610,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13636,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13662,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13688,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13714,7 +13726,7 @@
         <v>0.62</v>
       </c>
       <c r="H427" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13740,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13766,7 +13778,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H429" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13792,7 +13804,7 @@
         <v>0.71875</v>
       </c>
       <c r="H430" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13818,7 +13830,7 @@
         <v>0.2153846153846154</v>
       </c>
       <c r="H431" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13844,7 +13856,7 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="H432" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13870,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13896,7 +13908,7 @@
         <v>0.5</v>
       </c>
       <c r="H434" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13922,7 +13934,7 @@
         <v>0.2898550724637681</v>
       </c>
       <c r="H435" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13948,7 +13960,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H436" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13974,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14000,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14026,7 +14038,7 @@
         <v>0.7605633802816902</v>
       </c>
       <c r="H439" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14052,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14078,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14104,7 +14116,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14130,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14156,7 +14168,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14182,7 +14194,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14208,7 +14220,7 @@
         <v>0.6226415094339622</v>
       </c>
       <c r="H446" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14234,7 +14246,7 @@
         <v>0.2830188679245283</v>
       </c>
       <c r="H447" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14260,7 +14272,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H448" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14286,7 +14298,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14312,7 +14324,7 @@
         <v>0.45</v>
       </c>
       <c r="H450" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14338,7 +14350,7 @@
         <v>0.45</v>
       </c>
       <c r="H451" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14364,7 +14376,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14390,7 +14402,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H453" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14416,7 +14428,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H454" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14442,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14468,7 +14480,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14494,7 +14506,7 @@
         <v>0.7285714285714286</v>
       </c>
       <c r="H457" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14520,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14546,7 +14558,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H459" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14572,7 +14584,7 @@
         <v>0.2</v>
       </c>
       <c r="H460" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14598,7 +14610,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H461" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14624,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14650,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14676,7 +14688,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H464" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14702,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14728,7 +14740,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H466" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14754,7 +14766,7 @@
         <v>0.484375</v>
       </c>
       <c r="H467" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14780,7 +14792,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H468" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14806,7 +14818,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H469" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14832,7 +14844,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H470" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14858,7 +14870,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14884,7 +14896,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H472" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14910,7 +14922,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H473" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14936,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14962,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14988,7 +15000,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H476" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15014,7 +15026,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H477" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15040,7 +15052,7 @@
         <v>0.5</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15066,7 +15078,7 @@
         <v>0.5142857142857143</v>
       </c>
       <c r="H479" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15092,7 +15104,7 @@
         <v>0.4722222222222223</v>
       </c>
       <c r="H480" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15118,7 +15130,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H481" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15144,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15170,7 +15182,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H483" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15196,7 +15208,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15222,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15248,7 +15260,7 @@
         <v>0.8125</v>
       </c>
       <c r="H486" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15274,7 +15286,7 @@
         <v>0.8125</v>
       </c>
       <c r="H487" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15300,7 +15312,7 @@
         <v>0.4925373134328359</v>
       </c>
       <c r="H488" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15326,7 +15338,7 @@
         <v>0.8208955223880597</v>
       </c>
       <c r="H489" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15352,7 +15364,7 @@
         <v>0.4923076923076923</v>
       </c>
       <c r="H490" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15378,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15404,7 +15416,7 @@
         <v>0.5</v>
       </c>
       <c r="H492" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15430,7 +15442,7 @@
         <v>0.8064516129032259</v>
       </c>
       <c r="H493" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15456,7 +15468,7 @@
         <v>0.40625</v>
       </c>
       <c r="H494" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15482,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15508,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15534,7 +15546,7 @@
         <v>0.5076923076923077</v>
       </c>
       <c r="H497" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15560,7 +15572,7 @@
         <v>0.484375</v>
       </c>
       <c r="H498" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15586,7 +15598,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H499" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15612,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15638,7 +15650,7 @@
         <v>0.62</v>
       </c>
       <c r="H501" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15664,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15690,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15716,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15742,7 +15754,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H505" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15768,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15794,7 +15806,7 @@
         <v>0.2753623188405797</v>
       </c>
       <c r="H507" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15820,7 +15832,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H508" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15846,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15872,7 +15884,7 @@
         <v>0.2686567164179104</v>
       </c>
       <c r="H510" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15898,7 +15910,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15924,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15950,7 +15962,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H513" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15976,7 +15988,7 @@
         <v>0.4921</v>
       </c>
       <c r="H514" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16002,7 +16014,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16028,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16054,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16080,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16106,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16132,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16158,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16184,7 +16196,7 @@
         <v>0.3478</v>
       </c>
       <c r="H522" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16210,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16236,7 +16248,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16262,7 +16274,7 @@
         <v>0.7667</v>
       </c>
       <c r="H525" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16288,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16314,7 +16326,7 @@
         <v>0.5077</v>
       </c>
       <c r="H527" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16340,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16366,7 +16378,7 @@
         <v>0.25</v>
       </c>
       <c r="H529" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16392,7 +16404,7 @@
         <v>0.4839</v>
       </c>
       <c r="H530" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16418,7 +16430,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16444,7 +16456,7 @@
         <v>0.5152</v>
       </c>
       <c r="H532" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16470,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16496,7 +16508,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16522,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16548,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16574,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16600,7 +16612,7 @@
         <v>0.5484</v>
       </c>
       <c r="H538" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16626,7 +16638,7 @@
         <v>0.5312</v>
       </c>
       <c r="H539" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16652,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16678,7 +16690,7 @@
         <v>0.5312</v>
       </c>
       <c r="H541" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16704,7 +16716,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16730,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16756,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16782,7 +16794,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16808,7 +16820,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H546" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16834,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16860,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16886,7 +16898,7 @@
         <v>0.6522</v>
       </c>
       <c r="H549" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16912,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16938,7 +16950,7 @@
         <v>0.6522</v>
       </c>
       <c r="H551" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16964,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16990,7 +17002,7 @@
         <v>0.6808999999999998</v>
       </c>
       <c r="H553" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17016,7 +17028,7 @@
         <v>0.6957</v>
       </c>
       <c r="H554" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17042,7 +17054,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17068,7 +17080,7 @@
         <v>0.6818</v>
       </c>
       <c r="H556" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17094,7 +17106,7 @@
         <v>0.6512</v>
       </c>
       <c r="H557" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17120,7 +17132,7 @@
         <v>0.7458</v>
       </c>
       <c r="H558" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17146,7 +17158,7 @@
         <v>0.7288</v>
       </c>
       <c r="H559" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17172,7 +17184,7 @@
         <v>0.6522</v>
       </c>
       <c r="H560" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17198,7 +17210,7 @@
         <v>0.6522</v>
       </c>
       <c r="H561" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17224,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17250,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17260,7 +17272,13 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564">
         <v>1</v>
       </c>
       <c r="F564">
@@ -17270,7 +17288,53 @@
         <v>0.6808999999999998</v>
       </c>
       <c r="H564" t="s">
-        <v>727</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>0.2456</v>
+      </c>
+      <c r="G565">
+        <v>0.7544</v>
+      </c>
+      <c r="H565" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>571</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0.5667</v>
+      </c>
+      <c r="G566">
+        <v>0.4333</v>
+      </c>
+      <c r="H566" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="757">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2624,7 +2642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2676,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2702,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2728,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2754,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2780,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2806,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2832,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2858,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2884,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2910,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2936,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2962,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2988,7 +3006,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3014,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3040,7 +3058,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3066,7 +3084,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3092,7 +3110,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3118,7 +3136,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3144,7 +3162,7 @@
         <v>0.5769230769230769</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3170,7 +3188,7 @@
         <v>0.75</v>
       </c>
       <c r="H21" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3196,7 +3214,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H22" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3222,7 +3240,7 @@
         <v>0.6129032258064516</v>
       </c>
       <c r="H23" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3248,7 +3266,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H24" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3274,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3300,7 +3318,7 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="H26" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3326,7 +3344,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H27" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3352,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3378,7 +3396,7 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="H29" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3404,7 +3422,7 @@
         <v>0.2954545454545455</v>
       </c>
       <c r="H30" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3430,7 +3448,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H31" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3456,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3482,7 +3500,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H33" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3508,7 +3526,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H34" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3534,7 +3552,7 @@
         <v>0.7115384615384615</v>
       </c>
       <c r="H35" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3560,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3586,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3612,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3638,7 +3656,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H39" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3664,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3690,7 +3708,7 @@
         <v>0.6727272727272726</v>
       </c>
       <c r="H41" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3716,7 +3734,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H42" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3742,7 +3760,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H43" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3768,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3794,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3820,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3846,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3872,7 +3890,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H48" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3898,7 +3916,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3924,7 +3942,7 @@
         <v>0.6851851851851852</v>
       </c>
       <c r="H50" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3950,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3976,7 +3994,7 @@
         <v>0.3272727272727273</v>
       </c>
       <c r="H52" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4002,7 +4020,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H53" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4028,7 +4046,7 @@
         <v>0.3584905660377359</v>
       </c>
       <c r="H54" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4054,7 +4072,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H55" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4080,7 +4098,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H56" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4106,7 +4124,7 @@
         <v>0.5</v>
       </c>
       <c r="H57" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4132,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4158,7 +4176,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H59" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4184,7 +4202,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H60" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4210,7 +4228,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H61" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4236,7 +4254,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H62" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4262,7 +4280,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H63" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4288,7 +4306,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H64" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4314,7 +4332,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H65" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4340,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4366,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4392,7 +4410,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H68" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4418,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4444,7 +4462,7 @@
         <v>0.326530612244898</v>
       </c>
       <c r="H70" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4470,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4496,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4522,7 +4540,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H73" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4548,7 +4566,7 @@
         <v>0.66</v>
       </c>
       <c r="H74" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4574,7 +4592,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H75" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4600,7 +4618,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H76" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4626,7 +4644,7 @@
         <v>0.5</v>
       </c>
       <c r="H77" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4652,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4678,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4704,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4730,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4756,7 +4774,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H82" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4782,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4808,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4834,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4860,7 +4878,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H86" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4886,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4912,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4938,7 +4956,7 @@
         <v>0.5263157894736843</v>
       </c>
       <c r="H89" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4964,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4990,7 +5008,7 @@
         <v>0.660377358490566</v>
       </c>
       <c r="H91" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5016,7 +5034,7 @@
         <v>0.7358490566037736</v>
       </c>
       <c r="H92" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5042,7 +5060,7 @@
         <v>0.65</v>
       </c>
       <c r="H93" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5068,7 +5086,7 @@
         <v>0.4426229508196722</v>
       </c>
       <c r="H94" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5094,7 +5112,7 @@
         <v>0.2131147540983607</v>
       </c>
       <c r="H95" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5120,7 +5138,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H96" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5146,7 +5164,7 @@
         <v>0.7903225806451615</v>
       </c>
       <c r="H97" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5172,7 +5190,7 @@
         <v>0.7936507936507937</v>
       </c>
       <c r="H98" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5198,7 +5216,7 @@
         <v>0.6415094339622642</v>
       </c>
       <c r="H99" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5224,7 +5242,7 @@
         <v>0.5849056603773586</v>
       </c>
       <c r="H100" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5250,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5276,7 +5294,7 @@
         <v>0.64</v>
       </c>
       <c r="H102" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5302,7 +5320,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H103" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5328,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5354,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5380,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5406,7 +5424,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5432,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5458,7 +5476,7 @@
         <v>0.7692307692307694</v>
       </c>
       <c r="H109" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5484,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5510,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5536,7 +5554,7 @@
         <v>0.7</v>
       </c>
       <c r="H112" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5562,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5588,7 +5606,7 @@
         <v>0.5</v>
       </c>
       <c r="H114" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5614,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5640,7 +5658,7 @@
         <v>0.72</v>
       </c>
       <c r="H116" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5666,7 +5684,7 @@
         <v>0.7662337662337663</v>
       </c>
       <c r="H117" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5692,7 +5710,7 @@
         <v>0.782051282051282</v>
       </c>
       <c r="H118" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5718,7 +5736,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H119" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5744,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5770,7 +5788,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H121" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5796,7 +5814,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H122" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5822,7 +5840,7 @@
         <v>0.4805194805194805</v>
       </c>
       <c r="H123" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5848,7 +5866,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H124" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5874,7 +5892,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H125" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5900,7 +5918,7 @@
         <v>0.25</v>
       </c>
       <c r="H126" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5926,7 +5944,7 @@
         <v>0.5</v>
       </c>
       <c r="H127" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5952,7 +5970,7 @@
         <v>0.2533333333333333</v>
       </c>
       <c r="H128" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5978,7 +5996,7 @@
         <v>0.2467532467532468</v>
       </c>
       <c r="H129" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6004,7 +6022,7 @@
         <v>0.5324675324675325</v>
       </c>
       <c r="H130" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6030,7 +6048,7 @@
         <v>0.6451612903225807</v>
       </c>
       <c r="H131" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6056,7 +6074,7 @@
         <v>0.6612903225806451</v>
       </c>
       <c r="H132" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6082,7 +6100,7 @@
         <v>0.5</v>
       </c>
       <c r="H133" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6108,7 +6126,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H134" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6134,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6160,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6186,7 +6204,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H137" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6212,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6238,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6264,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6290,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6316,7 +6334,7 @@
         <v>0.7192982456140351</v>
       </c>
       <c r="H142" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6342,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6368,7 +6386,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H144" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6394,7 +6412,7 @@
         <v>0.7323943661971832</v>
       </c>
       <c r="H145" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6420,7 +6438,7 @@
         <v>0.7971014492753623</v>
       </c>
       <c r="H146" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6446,7 +6464,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H147" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6472,7 +6490,7 @@
         <v>0.8115942028985508</v>
       </c>
       <c r="H148" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6498,7 +6516,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H149" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6524,7 +6542,7 @@
         <v>0.5</v>
       </c>
       <c r="H150" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6550,7 +6568,7 @@
         <v>0.3584905660377358</v>
       </c>
       <c r="H151" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6576,7 +6594,7 @@
         <v>0.4769230769230768</v>
       </c>
       <c r="H152" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6602,7 +6620,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H153" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6628,7 +6646,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H154" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6654,7 +6672,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H155" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6680,7 +6698,7 @@
         <v>0.803030303030303</v>
       </c>
       <c r="H156" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6706,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6732,7 +6750,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H158" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6758,7 +6776,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H159" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6784,7 +6802,7 @@
         <v>0.68</v>
       </c>
       <c r="H160" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6810,7 +6828,7 @@
         <v>0.7647058823529413</v>
       </c>
       <c r="H161" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6836,7 +6854,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H162" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6862,7 +6880,7 @@
         <v>0.5362318840579711</v>
       </c>
       <c r="H163" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6888,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6914,7 +6932,7 @@
         <v>0.2285714285714286</v>
       </c>
       <c r="H165" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6940,7 +6958,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H166" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6966,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6992,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7018,7 +7036,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H169" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7044,7 +7062,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H170" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7070,7 +7088,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H171" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7096,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7122,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7148,7 +7166,7 @@
         <v>0.625</v>
       </c>
       <c r="H174" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7174,7 +7192,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H175" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7200,7 +7218,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H176" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7226,7 +7244,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H177" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7252,7 +7270,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H178" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7278,7 +7296,7 @@
         <v>0.726027397260274</v>
       </c>
       <c r="H179" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7304,7 +7322,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H180" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7330,7 +7348,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7356,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7382,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7408,7 +7426,7 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="H184" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7434,7 +7452,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H185" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7460,7 +7478,7 @@
         <v>0.5441176470588236</v>
       </c>
       <c r="H186" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7486,7 +7504,7 @@
         <v>0.5072463768115942</v>
       </c>
       <c r="H187" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7512,7 +7530,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H188" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7538,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7564,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7590,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7616,7 +7634,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H192" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7642,7 +7660,7 @@
         <v>0.75</v>
       </c>
       <c r="H193" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7668,7 +7686,7 @@
         <v>0.3673469387755102</v>
       </c>
       <c r="H194" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7694,7 +7712,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H195" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7720,7 +7738,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H196" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7746,7 +7764,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H197" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7772,7 +7790,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H198" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7798,7 +7816,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H199" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7824,7 +7842,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7850,7 +7868,7 @@
         <v>0.4848484848484848</v>
       </c>
       <c r="H201" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7876,7 +7894,7 @@
         <v>0.515625</v>
       </c>
       <c r="H202" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7902,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7928,7 +7946,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H204" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7954,7 +7972,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7980,7 +7998,7 @@
         <v>0.3</v>
       </c>
       <c r="H206" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8006,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8032,7 +8050,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H208" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8058,7 +8076,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H209" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8084,7 +8102,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H210" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8110,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8136,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8162,7 +8180,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H213" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8188,7 +8206,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H214" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8214,7 +8232,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H215" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8240,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8266,7 +8284,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H217" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8292,7 +8310,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H218" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8318,7 +8336,7 @@
         <v>0.7536231884057972</v>
       </c>
       <c r="H219" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8344,7 +8362,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H220" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8370,7 +8388,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="H221" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8396,7 +8414,7 @@
         <v>0.5499999999999999</v>
       </c>
       <c r="H222" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8422,7 +8440,7 @@
         <v>0.6181818181818182</v>
       </c>
       <c r="H223" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8448,7 +8466,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H224" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8474,7 +8492,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H225" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8500,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8526,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8552,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8578,7 +8596,7 @@
         <v>0.4313725490196078</v>
       </c>
       <c r="H229" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8604,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8630,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8656,7 +8674,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H232" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8682,7 +8700,7 @@
         <v>0.28</v>
       </c>
       <c r="H233" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8708,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8734,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8760,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8786,7 +8804,7 @@
         <v>0.388888888888889</v>
       </c>
       <c r="H237" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8812,7 +8830,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H238" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8838,7 +8856,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H239" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8864,7 +8882,7 @@
         <v>0.196969696969697</v>
       </c>
       <c r="H240" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8890,7 +8908,7 @@
         <v>0.4393939393939394</v>
       </c>
       <c r="H241" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8916,7 +8934,7 @@
         <v>0.7205882352941176</v>
       </c>
       <c r="H242" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8942,7 +8960,7 @@
         <v>0.75</v>
       </c>
       <c r="H243" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8968,7 +8986,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H244" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8994,7 +9012,7 @@
         <v>0.4142857142857143</v>
       </c>
       <c r="H245" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9020,7 +9038,7 @@
         <v>0.5797101449275363</v>
       </c>
       <c r="H246" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9046,7 +9064,7 @@
         <v>0.6911764705882354</v>
       </c>
       <c r="H247" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9072,7 +9090,7 @@
         <v>0.2463768115942029</v>
       </c>
       <c r="H248" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9098,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9124,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9150,7 +9168,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H251" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9176,7 +9194,7 @@
         <v>0.6986301369863014</v>
       </c>
       <c r="H252" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9202,7 +9220,7 @@
         <v>0.4933333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9228,7 +9246,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H254" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9254,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9280,7 +9298,7 @@
         <v>0.2597402597402597</v>
       </c>
       <c r="H256" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9306,7 +9324,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H257" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9332,7 +9350,7 @@
         <v>0.7702702702702702</v>
       </c>
       <c r="H258" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9358,7 +9376,7 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="H259" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9384,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9410,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9436,7 +9454,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H262" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9462,7 +9480,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="H263" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9488,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9514,7 +9532,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H265" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9540,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9566,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9592,7 +9610,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H268" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9618,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="H269" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9644,7 +9662,7 @@
         <v>0.5211267605633804</v>
       </c>
       <c r="H270" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9670,7 +9688,7 @@
         <v>0.5352112676056339</v>
       </c>
       <c r="H271" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9696,7 +9714,7 @@
         <v>0.7571428571428572</v>
       </c>
       <c r="H272" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9722,7 +9740,7 @@
         <v>0.7037037037037037</v>
       </c>
       <c r="H273" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9748,7 +9766,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H274" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9774,7 +9792,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H275" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9800,7 +9818,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H276" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9826,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9852,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9878,7 +9896,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H279" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9904,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9930,7 +9948,7 @@
         <v>0.32</v>
       </c>
       <c r="H281" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9956,7 +9974,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H282" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9982,7 +10000,7 @@
         <v>0.38</v>
       </c>
       <c r="H283" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10008,7 +10026,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H284" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10034,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10060,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10086,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10112,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10138,7 +10156,7 @@
         <v>0.346938775510204</v>
       </c>
       <c r="H289" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10164,7 +10182,7 @@
         <v>0.4838709677419355</v>
       </c>
       <c r="H290" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10190,7 +10208,7 @@
         <v>0.2765957446808511</v>
       </c>
       <c r="H291" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10216,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10242,7 +10260,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H293" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10268,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10294,7 +10312,7 @@
         <v>0.5957446808510638</v>
       </c>
       <c r="H295" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10320,7 +10338,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H296" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10346,7 +10364,7 @@
         <v>0.40625</v>
       </c>
       <c r="H297" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10372,7 +10390,7 @@
         <v>0.6885245901639344</v>
       </c>
       <c r="H298" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10398,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10424,7 +10442,7 @@
         <v>0.734375</v>
       </c>
       <c r="H300" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10450,7 +10468,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10476,7 +10494,7 @@
         <v>0.734375</v>
       </c>
       <c r="H302" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10502,7 +10520,7 @@
         <v>0.7384615384615385</v>
       </c>
       <c r="H303" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10528,7 +10546,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H304" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10554,7 +10572,7 @@
         <v>0.7846153846153845</v>
       </c>
       <c r="H305" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10580,7 +10598,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H306" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10606,7 +10624,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H307" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10632,7 +10650,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H308" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10658,7 +10676,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="H309" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10684,7 +10702,7 @@
         <v>0.25</v>
       </c>
       <c r="H310" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10710,7 +10728,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H311" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10736,7 +10754,7 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="H312" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10762,7 +10780,7 @@
         <v>0.6470588235294117</v>
       </c>
       <c r="H313" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10788,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10814,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10840,7 +10858,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H316" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10866,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10892,7 +10910,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H318" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10918,7 +10936,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H319" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10944,7 +10962,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H320" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10970,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10996,7 +11014,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H322" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11022,7 +11040,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H323" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11048,7 +11066,7 @@
         <v>0.7611940298507462</v>
       </c>
       <c r="H324" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11074,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11100,7 +11118,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H326" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11126,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11152,7 +11170,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H328" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11178,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11204,7 +11222,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H330" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11230,7 +11248,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H331" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11256,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11282,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11308,7 +11326,7 @@
         <v>0.2297297297297297</v>
       </c>
       <c r="H334" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11334,7 +11352,7 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="H335" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11360,7 +11378,7 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="H336" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11386,7 +11404,7 @@
         <v>0.2328767123287671</v>
       </c>
       <c r="H337" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11412,7 +11430,7 @@
         <v>0.3055555555555555</v>
       </c>
       <c r="H338" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11438,7 +11456,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H339" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11464,7 +11482,7 @@
         <v>0.5</v>
       </c>
       <c r="H340" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11490,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11516,7 +11534,7 @@
         <v>0.7532467532467533</v>
       </c>
       <c r="H342" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11542,7 +11560,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H343" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11568,7 +11586,7 @@
         <v>0.7307692307692308</v>
       </c>
       <c r="H344" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11594,7 +11612,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H345" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11620,7 +11638,7 @@
         <v>0.2982456140350877</v>
       </c>
       <c r="H346" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11646,7 +11664,7 @@
         <v>0.6607142857142858</v>
       </c>
       <c r="H347" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11672,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11698,7 +11716,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H349" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11724,7 +11742,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H350" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11750,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11776,7 +11794,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H352" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11802,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11828,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11854,7 +11872,7 @@
         <v>0.6</v>
       </c>
       <c r="H355" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11880,7 +11898,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H356" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11906,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11932,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11958,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11984,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12010,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12036,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12062,7 +12080,7 @@
         <v>0.6136363636363638</v>
       </c>
       <c r="H363" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12088,7 +12106,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H364" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12114,7 +12132,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H365" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12140,7 +12158,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H366" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12166,7 +12184,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H367" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12192,7 +12210,7 @@
         <v>0.3409090909090909</v>
       </c>
       <c r="H368" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12218,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12244,7 +12262,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H370" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12270,7 +12288,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H371" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12296,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12322,7 +12340,7 @@
         <v>0.3043478260869565</v>
       </c>
       <c r="H373" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12348,7 +12366,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H374" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12374,7 +12392,7 @@
         <v>0.2807017543859649</v>
       </c>
       <c r="H375" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12400,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12426,7 +12444,7 @@
         <v>0.4576271186440677</v>
       </c>
       <c r="H377" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12452,7 +12470,7 @@
         <v>0.25</v>
       </c>
       <c r="H378" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12478,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12504,7 +12522,7 @@
         <v>0.5254237288135594</v>
       </c>
       <c r="H380" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12530,7 +12548,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H381" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12556,7 +12574,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H382" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12582,7 +12600,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H383" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12608,7 +12626,7 @@
         <v>0.6304347826086957</v>
       </c>
       <c r="H384" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12634,7 +12652,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H385" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12660,7 +12678,7 @@
         <v>0.391304347826087</v>
       </c>
       <c r="H386" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12686,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12712,7 +12730,7 @@
         <v>0.6326530612244897</v>
       </c>
       <c r="H388" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12738,7 +12756,7 @@
         <v>0.3061224489795919</v>
       </c>
       <c r="H389" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12764,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12790,7 +12808,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H391" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12816,7 +12834,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H392" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12842,7 +12860,7 @@
         <v>0.734375</v>
       </c>
       <c r="H393" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12868,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12894,7 +12912,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H395" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12920,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12946,7 +12964,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H397" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12972,7 +12990,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H398" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12998,7 +13016,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13024,7 +13042,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H400" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13050,7 +13068,7 @@
         <v>0.4852941176470588</v>
       </c>
       <c r="H401" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13076,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13102,7 +13120,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H403" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13128,7 +13146,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H404" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13154,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13180,7 +13198,7 @@
         <v>0.7</v>
       </c>
       <c r="H406" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13206,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13232,7 +13250,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="H408" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13258,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13284,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13310,7 +13328,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H411" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13336,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13362,7 +13380,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H413" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13388,7 +13406,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H414" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13414,7 +13432,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H415" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13440,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13466,7 +13484,7 @@
         <v>0.3</v>
       </c>
       <c r="H417" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13492,7 +13510,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13518,7 +13536,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="H419" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13544,7 +13562,7 @@
         <v>0.3191489361702128</v>
       </c>
       <c r="H420" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13570,7 +13588,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H421" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13596,7 +13614,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H422" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13622,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13648,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13674,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13700,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13726,7 +13744,7 @@
         <v>0.62</v>
       </c>
       <c r="H427" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13752,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13778,7 +13796,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H429" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13804,7 +13822,7 @@
         <v>0.71875</v>
       </c>
       <c r="H430" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13830,7 +13848,7 @@
         <v>0.2153846153846154</v>
       </c>
       <c r="H431" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13856,7 +13874,7 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="H432" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13882,7 +13900,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13908,7 +13926,7 @@
         <v>0.5</v>
       </c>
       <c r="H434" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13934,7 +13952,7 @@
         <v>0.2898550724637681</v>
       </c>
       <c r="H435" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13960,7 +13978,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H436" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13986,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14012,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14038,7 +14056,7 @@
         <v>0.7605633802816902</v>
       </c>
       <c r="H439" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14064,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14090,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14116,7 +14134,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14142,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14168,7 +14186,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14194,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14220,7 +14238,7 @@
         <v>0.6226415094339622</v>
       </c>
       <c r="H446" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14246,7 +14264,7 @@
         <v>0.2830188679245283</v>
       </c>
       <c r="H447" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14272,7 +14290,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H448" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14298,7 +14316,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14324,7 +14342,7 @@
         <v>0.45</v>
       </c>
       <c r="H450" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14350,7 +14368,7 @@
         <v>0.45</v>
       </c>
       <c r="H451" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14376,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14402,7 +14420,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H453" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14428,7 +14446,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H454" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14454,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14480,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14506,7 +14524,7 @@
         <v>0.7285714285714286</v>
       </c>
       <c r="H457" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14532,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14558,7 +14576,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H459" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14584,7 +14602,7 @@
         <v>0.2</v>
       </c>
       <c r="H460" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14610,7 +14628,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H461" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14636,7 +14654,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14662,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14688,7 +14706,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H464" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14714,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14740,7 +14758,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H466" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14766,7 +14784,7 @@
         <v>0.484375</v>
       </c>
       <c r="H467" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14792,7 +14810,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H468" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14818,7 +14836,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H469" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14844,7 +14862,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H470" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14870,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14896,7 +14914,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H472" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14922,7 +14940,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H473" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14948,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14974,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15000,7 +15018,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H476" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15026,7 +15044,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H477" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15052,7 +15070,7 @@
         <v>0.5</v>
       </c>
       <c r="H478" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15078,7 +15096,7 @@
         <v>0.5142857142857143</v>
       </c>
       <c r="H479" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15104,7 +15122,7 @@
         <v>0.4722222222222223</v>
       </c>
       <c r="H480" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15130,7 +15148,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H481" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15156,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15182,7 +15200,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H483" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15208,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15234,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15260,7 +15278,7 @@
         <v>0.8125</v>
       </c>
       <c r="H486" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15286,7 +15304,7 @@
         <v>0.8125</v>
       </c>
       <c r="H487" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15312,7 +15330,7 @@
         <v>0.4925373134328359</v>
       </c>
       <c r="H488" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15338,7 +15356,7 @@
         <v>0.8208955223880597</v>
       </c>
       <c r="H489" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15364,7 +15382,7 @@
         <v>0.4923076923076923</v>
       </c>
       <c r="H490" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15390,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15416,7 +15434,7 @@
         <v>0.5</v>
       </c>
       <c r="H492" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15442,7 +15460,7 @@
         <v>0.8064516129032259</v>
       </c>
       <c r="H493" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15468,7 +15486,7 @@
         <v>0.40625</v>
       </c>
       <c r="H494" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15494,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15520,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15546,7 +15564,7 @@
         <v>0.5076923076923077</v>
       </c>
       <c r="H497" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15572,7 +15590,7 @@
         <v>0.484375</v>
       </c>
       <c r="H498" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15598,7 +15616,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H499" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15624,7 +15642,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15650,7 +15668,7 @@
         <v>0.62</v>
       </c>
       <c r="H501" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15676,7 +15694,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15702,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15728,7 +15746,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15754,7 +15772,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H505" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15780,7 +15798,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15806,7 +15824,7 @@
         <v>0.2753623188405797</v>
       </c>
       <c r="H507" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15832,7 +15850,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H508" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15858,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15884,7 +15902,7 @@
         <v>0.2686567164179104</v>
       </c>
       <c r="H510" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15910,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15936,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15962,7 +15980,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H513" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15988,7 +16006,7 @@
         <v>0.4921</v>
       </c>
       <c r="H514" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16014,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16040,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16066,7 +16084,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16092,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16118,7 +16136,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16144,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16170,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16196,7 +16214,7 @@
         <v>0.3478</v>
       </c>
       <c r="H522" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16222,7 +16240,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16248,7 +16266,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16274,7 +16292,7 @@
         <v>0.7667</v>
       </c>
       <c r="H525" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16300,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16326,7 +16344,7 @@
         <v>0.5077</v>
       </c>
       <c r="H527" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16352,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16378,7 +16396,7 @@
         <v>0.25</v>
       </c>
       <c r="H529" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16404,7 +16422,7 @@
         <v>0.4839</v>
       </c>
       <c r="H530" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16430,7 +16448,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16456,7 +16474,7 @@
         <v>0.5152</v>
       </c>
       <c r="H532" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16482,7 +16500,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16508,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16534,7 +16552,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16560,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16586,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16612,7 +16630,7 @@
         <v>0.5484</v>
       </c>
       <c r="H538" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16638,7 +16656,7 @@
         <v>0.5312</v>
       </c>
       <c r="H539" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16664,7 +16682,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16690,7 +16708,7 @@
         <v>0.5312</v>
       </c>
       <c r="H541" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16716,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16742,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16768,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16794,7 +16812,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16820,7 +16838,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H546" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16846,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16872,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16898,7 +16916,7 @@
         <v>0.6522</v>
       </c>
       <c r="H549" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16924,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16950,7 +16968,7 @@
         <v>0.6522</v>
       </c>
       <c r="H551" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16976,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17002,7 +17020,7 @@
         <v>0.6808999999999998</v>
       </c>
       <c r="H553" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17028,7 +17046,7 @@
         <v>0.6957</v>
       </c>
       <c r="H554" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17054,7 +17072,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17080,7 +17098,7 @@
         <v>0.6818</v>
       </c>
       <c r="H556" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17106,7 +17124,7 @@
         <v>0.6512</v>
       </c>
       <c r="H557" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17132,7 +17150,7 @@
         <v>0.7458</v>
       </c>
       <c r="H558" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17158,7 +17176,7 @@
         <v>0.7288</v>
       </c>
       <c r="H559" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17184,7 +17202,7 @@
         <v>0.6522</v>
       </c>
       <c r="H560" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17210,7 +17228,7 @@
         <v>0.6522</v>
       </c>
       <c r="H561" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17236,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17262,7 +17280,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17288,7 +17306,7 @@
         <v>0.6808999999999998</v>
       </c>
       <c r="H564" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17314,7 +17332,7 @@
         <v>0.7544</v>
       </c>
       <c r="H565" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17324,8 +17342,14 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>0</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
       </c>
       <c r="F566">
         <v>0.5667</v>
@@ -17334,7 +17358,157 @@
         <v>0.4333</v>
       </c>
       <c r="H566" t="s">
-        <v>750</v>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>0.75</v>
+      </c>
+      <c r="G567">
+        <v>0.25</v>
+      </c>
+      <c r="H567" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0.72</v>
+      </c>
+      <c r="G572">
+        <v>0.28</v>
+      </c>
+      <c r="H572" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVSMO.xlsx
+++ b/firebase_data_from_spyEnsembleVSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="759">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2642,7 +2648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2694,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2720,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2798,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2824,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2850,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2902,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2928,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2980,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3006,7 +3012,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3032,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3058,7 +3064,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3084,7 +3090,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3110,7 +3116,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3136,7 +3142,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3162,7 +3168,7 @@
         <v>0.5769230769230769</v>
       </c>
       <c r="H20" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3188,7 +3194,7 @@
         <v>0.75</v>
       </c>
       <c r="H21" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3214,7 +3220,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3240,7 +3246,7 @@
         <v>0.6129032258064516</v>
       </c>
       <c r="H23" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3266,7 +3272,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H24" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3292,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3318,7 +3324,7 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="H26" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3344,7 +3350,7 @@
         <v>0.3749999999999998</v>
       </c>
       <c r="H27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3370,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3396,7 +3402,7 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="H29" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3422,7 +3428,7 @@
         <v>0.2954545454545455</v>
       </c>
       <c r="H30" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3448,7 +3454,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3474,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3500,7 +3506,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H33" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3526,7 +3532,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H34" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3552,7 +3558,7 @@
         <v>0.7115384615384615</v>
       </c>
       <c r="H35" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3578,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3604,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3630,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3656,7 +3662,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H39" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3682,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3708,7 +3714,7 @@
         <v>0.6727272727272726</v>
       </c>
       <c r="H41" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3734,7 +3740,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H42" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3760,7 +3766,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H43" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3786,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3812,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3838,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3864,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3890,7 +3896,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H48" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3916,7 +3922,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3942,7 +3948,7 @@
         <v>0.6851851851851852</v>
       </c>
       <c r="H50" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3968,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3994,7 +4000,7 @@
         <v>0.3272727272727273</v>
       </c>
       <c r="H52" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4020,7 +4026,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H53" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4046,7 +4052,7 @@
         <v>0.3584905660377359</v>
       </c>
       <c r="H54" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4072,7 +4078,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H55" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4098,7 +4104,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H56" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4124,7 +4130,7 @@
         <v>0.5</v>
       </c>
       <c r="H57" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4150,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4176,7 +4182,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H59" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4202,7 +4208,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H60" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4228,7 +4234,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H61" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4254,7 +4260,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H62" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4280,7 +4286,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H63" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4306,7 +4312,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H64" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4332,7 +4338,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H65" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4358,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4384,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4410,7 +4416,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H68" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4436,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4462,7 +4468,7 @@
         <v>0.326530612244898</v>
       </c>
       <c r="H70" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4488,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4514,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4540,7 +4546,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H73" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4566,7 +4572,7 @@
         <v>0.66</v>
       </c>
       <c r="H74" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4592,7 +4598,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H75" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4618,7 +4624,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H76" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4644,7 +4650,7 @@
         <v>0.5</v>
       </c>
       <c r="H77" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4670,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4696,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4722,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4748,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4774,7 +4780,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H82" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4800,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4826,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4852,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4878,7 +4884,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H86" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4904,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4930,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4956,7 +4962,7 @@
         <v>0.5263157894736843</v>
       </c>
       <c r="H89" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4982,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5008,7 +5014,7 @@
         <v>0.660377358490566</v>
       </c>
       <c r="H91" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5034,7 +5040,7 @@
         <v>0.7358490566037736</v>
       </c>
       <c r="H92" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5060,7 +5066,7 @@
         <v>0.65</v>
       </c>
       <c r="H93" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5086,7 +5092,7 @@
         <v>0.4426229508196722</v>
       </c>
       <c r="H94" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5112,7 +5118,7 @@
         <v>0.2131147540983607</v>
       </c>
       <c r="H95" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5138,7 +5144,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H96" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5164,7 +5170,7 @@
         <v>0.7903225806451615</v>
       </c>
       <c r="H97" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5190,7 +5196,7 @@
         <v>0.7936507936507937</v>
       </c>
       <c r="H98" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5216,7 +5222,7 @@
         <v>0.6415094339622642</v>
       </c>
       <c r="H99" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5242,7 +5248,7 @@
         <v>0.5849056603773586</v>
       </c>
       <c r="H100" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5268,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5294,7 +5300,7 @@
         <v>0.64</v>
       </c>
       <c r="H102" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5320,7 +5326,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H103" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5346,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5372,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5398,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5424,7 +5430,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5450,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5476,7 +5482,7 @@
         <v>0.7692307692307694</v>
       </c>
       <c r="H109" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5502,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5528,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5554,7 +5560,7 @@
         <v>0.7</v>
       </c>
       <c r="H112" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5580,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5606,7 +5612,7 @@
         <v>0.5</v>
       </c>
       <c r="H114" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5632,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5658,7 +5664,7 @@
         <v>0.72</v>
       </c>
       <c r="H116" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5684,7 +5690,7 @@
         <v>0.7662337662337663</v>
       </c>
       <c r="H117" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5710,7 +5716,7 @@
         <v>0.782051282051282</v>
       </c>
       <c r="H118" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5736,7 +5742,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H119" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5762,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5788,7 +5794,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H121" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5814,7 +5820,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H122" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5840,7 +5846,7 @@
         <v>0.4805194805194805</v>
       </c>
       <c r="H123" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5866,7 +5872,7 @@
         <v>0.7402597402597402</v>
       </c>
       <c r="H124" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5892,7 +5898,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H125" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5918,7 +5924,7 @@
         <v>0.25</v>
       </c>
       <c r="H126" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5944,7 +5950,7 @@
         <v>0.5</v>
       </c>
       <c r="H127" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5970,7 +5976,7 @@
         <v>0.2533333333333333</v>
       </c>
       <c r="H128" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5996,7 +6002,7 @@
         <v>0.2467532467532468</v>
       </c>
       <c r="H129" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6022,7 +6028,7 @@
         <v>0.5324675324675325</v>
       </c>
       <c r="H130" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6048,7 +6054,7 @@
         <v>0.6451612903225807</v>
       </c>
       <c r="H131" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6074,7 +6080,7 @@
         <v>0.6612903225806451</v>
       </c>
       <c r="H132" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6100,7 +6106,7 @@
         <v>0.5</v>
       </c>
       <c r="H133" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6126,7 +6132,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H134" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6152,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6178,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6204,7 +6210,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H137" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6230,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6256,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6282,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6308,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6334,7 +6340,7 @@
         <v>0.7192982456140351</v>
       </c>
       <c r="H142" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6360,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6386,7 +6392,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H144" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6412,7 +6418,7 @@
         <v>0.7323943661971832</v>
       </c>
       <c r="H145" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6438,7 +6444,7 @@
         <v>0.7971014492753623</v>
       </c>
       <c r="H146" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6464,7 +6470,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H147" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6490,7 +6496,7 @@
         <v>0.8115942028985508</v>
       </c>
       <c r="H148" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6516,7 +6522,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H149" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6542,7 +6548,7 @@
         <v>0.5</v>
       </c>
       <c r="H150" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6568,7 +6574,7 @@
         <v>0.3584905660377358</v>
       </c>
       <c r="H151" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6594,7 +6600,7 @@
         <v>0.4769230769230768</v>
       </c>
       <c r="H152" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6620,7 +6626,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="H153" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6646,7 +6652,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H154" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6672,7 +6678,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H155" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6698,7 +6704,7 @@
         <v>0.803030303030303</v>
       </c>
       <c r="H156" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6724,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6750,7 +6756,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H158" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6776,7 +6782,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="H159" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6802,7 +6808,7 @@
         <v>0.68</v>
       </c>
       <c r="H160" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6828,7 +6834,7 @@
         <v>0.7647058823529413</v>
       </c>
       <c r="H161" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6854,7 +6860,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H162" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6880,7 +6886,7 @@
         <v>0.5362318840579711</v>
       </c>
       <c r="H163" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6906,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6932,7 +6938,7 @@
         <v>0.2285714285714286</v>
       </c>
       <c r="H165" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6958,7 +6964,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H166" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6984,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7010,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7036,7 +7042,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H169" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7062,7 +7068,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H170" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7088,7 +7094,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H171" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7114,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7140,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7166,7 +7172,7 @@
         <v>0.625</v>
       </c>
       <c r="H174" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7192,7 +7198,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H175" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7218,7 +7224,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H176" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7244,7 +7250,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H177" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7270,7 +7276,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H178" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7296,7 +7302,7 @@
         <v>0.726027397260274</v>
       </c>
       <c r="H179" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7322,7 +7328,7 @@
         <v>0.7222222222222221</v>
       </c>
       <c r="H180" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7348,7 +7354,7 @@
         <v>0.7916666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7374,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7400,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7426,7 +7432,7 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="H184" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7452,7 +7458,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H185" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7478,7 +7484,7 @@
         <v>0.5441176470588236</v>
       </c>
       <c r="H186" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7504,7 +7510,7 @@
         <v>0.5072463768115942</v>
       </c>
       <c r="H187" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7530,7 +7536,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H188" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7556,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7582,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7608,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7634,7 +7640,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H192" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7660,7 +7666,7 @@
         <v>0.75</v>
       </c>
       <c r="H193" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7686,7 +7692,7 @@
         <v>0.3673469387755102</v>
       </c>
       <c r="H194" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7712,7 +7718,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H195" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7738,7 +7744,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H196" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7764,7 +7770,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H197" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7790,7 +7796,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H198" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7816,7 +7822,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H199" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7842,7 +7848,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7868,7 +7874,7 @@
         <v>0.4848484848484848</v>
       </c>
       <c r="H201" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7894,7 +7900,7 @@
         <v>0.515625</v>
       </c>
       <c r="H202" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7920,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7946,7 +7952,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H204" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7972,7 +7978,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7998,7 +8004,7 @@
         <v>0.3</v>
       </c>
       <c r="H206" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8024,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8050,7 +8056,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H208" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8076,7 +8082,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H209" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8102,7 +8108,7 @@
         <v>0.2884615384615385</v>
       </c>
       <c r="H210" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8128,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8154,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8180,7 +8186,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H213" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8206,7 +8212,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="H214" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8232,7 +8238,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H215" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8258,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8284,7 +8290,7 @@
         <v>0.3148148148148148</v>
       </c>
       <c r="H217" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8310,7 +8316,7 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="H218" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8336,7 +8342,7 @@
         <v>0.7536231884057972</v>
       </c>
       <c r="H219" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8362,7 +8368,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H220" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8388,7 +8394,7 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="H221" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8414,7 +8420,7 @@
         <v>0.5499999999999999</v>
       </c>
       <c r="H222" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8440,7 +8446,7 @@
         <v>0.6181818181818182</v>
       </c>
       <c r="H223" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8466,7 +8472,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H224" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8492,7 +8498,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H225" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8518,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8544,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8570,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8596,7 +8602,7 @@
         <v>0.4313725490196078</v>
       </c>
       <c r="H229" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8622,7 +8628,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8648,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8674,7 +8680,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H232" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8700,7 +8706,7 @@
         <v>0.28</v>
       </c>
       <c r="H233" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8726,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8752,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8778,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8804,7 +8810,7 @@
         <v>0.388888888888889</v>
       </c>
       <c r="H237" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8830,7 +8836,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="H238" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8856,7 +8862,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H239" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8882,7 +8888,7 @@
         <v>0.196969696969697</v>
       </c>
       <c r="H240" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8908,7 +8914,7 @@
         <v>0.4393939393939394</v>
       </c>
       <c r="H241" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8934,7 +8940,7 @@
         <v>0.7205882352941176</v>
       </c>
       <c r="H242" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8960,7 +8966,7 @@
         <v>0.75</v>
       </c>
       <c r="H243" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8986,7 +8992,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H244" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9012,7 +9018,7 @@
         <v>0.4142857142857143</v>
       </c>
       <c r="H245" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9038,7 +9044,7 @@
         <v>0.5797101449275363</v>
       </c>
       <c r="H246" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9064,7 +9070,7 @@
         <v>0.6911764705882354</v>
       </c>
       <c r="H247" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9090,7 +9096,7 @@
         <v>0.2463768115942029</v>
       </c>
       <c r="H248" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9116,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9142,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9168,7 +9174,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="H251" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9194,7 +9200,7 @@
         <v>0.6986301369863014</v>
       </c>
       <c r="H252" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9220,7 +9226,7 @@
         <v>0.4933333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9246,7 +9252,7 @@
         <v>0.6973684210526316</v>
       </c>
       <c r="H254" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9272,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9298,7 +9304,7 @@
         <v>0.2597402597402597</v>
       </c>
       <c r="H256" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9324,7 +9330,7 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="H257" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9350,7 +9356,7 @@
         <v>0.7702702702702702</v>
       </c>
       <c r="H258" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9376,7 +9382,7 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="H259" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9402,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9428,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9454,7 +9460,7 @@
         <v>0.2337662337662338</v>
       </c>
       <c r="H262" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9480,7 +9486,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="H263" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9506,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9532,7 +9538,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H265" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9558,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9584,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9610,7 +9616,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H268" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9636,7 +9642,7 @@
         <v>0.5</v>
       </c>
       <c r="H269" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9662,7 +9668,7 @@
         <v>0.5211267605633804</v>
       </c>
       <c r="H270" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9688,7 +9694,7 @@
         <v>0.5352112676056339</v>
       </c>
       <c r="H271" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9714,7 +9720,7 @@
         <v>0.7571428571428572</v>
       </c>
       <c r="H272" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9740,7 +9746,7 @@
         <v>0.7037037037037037</v>
       </c>
       <c r="H273" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9766,7 +9772,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H274" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9792,7 +9798,7 @@
         <v>0.6603773584905661</v>
       </c>
       <c r="H275" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9818,7 +9824,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H276" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9844,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9870,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9896,7 +9902,7 @@
         <v>0.3269230769230769</v>
       </c>
       <c r="H279" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9922,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9948,7 +9954,7 @@
         <v>0.32</v>
       </c>
       <c r="H281" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9974,7 +9980,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H282" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10000,7 +10006,7 @@
         <v>0.38</v>
       </c>
       <c r="H283" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10026,7 +10032,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H284" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10052,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10078,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10104,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10130,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10156,7 +10162,7 @@
         <v>0.346938775510204</v>
       </c>
       <c r="H289" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10182,7 +10188,7 @@
         <v>0.4838709677419355</v>
       </c>
       <c r="H290" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10208,7 +10214,7 @@
         <v>0.2765957446808511</v>
       </c>
       <c r="H291" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10234,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10260,7 +10266,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H293" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10286,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10312,7 +10318,7 @@
         <v>0.5957446808510638</v>
       </c>
       <c r="H295" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10338,7 +10344,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H296" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10364,7 +10370,7 @@
         <v>0.40625</v>
       </c>
       <c r="H297" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10390,7 +10396,7 @@
         <v>0.6885245901639344</v>
       </c>
       <c r="H298" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10416,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10442,7 +10448,7 @@
         <v>0.734375</v>
       </c>
       <c r="H300" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10468,7 +10474,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10494,7 +10500,7 @@
         <v>0.734375</v>
       </c>
       <c r="H302" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10520,7 +10526,7 @@
         <v>0.7384615384615385</v>
       </c>
       <c r="H303" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10546,7 +10552,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H304" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10572,7 +10578,7 @@
         <v>0.7846153846153845</v>
       </c>
       <c r="H305" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10598,7 +10604,7 @@
         <v>0.7313432835820897</v>
       </c>
       <c r="H306" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10624,7 +10630,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H307" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10650,7 +10656,7 @@
         <v>0.5074626865671642</v>
       </c>
       <c r="H308" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10676,7 +10682,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="H309" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10702,7 +10708,7 @@
         <v>0.25</v>
       </c>
       <c r="H310" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10728,7 +10734,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="H311" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10754,7 +10760,7 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="H312" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10780,7 +10786,7 @@
         <v>0.6470588235294117</v>
       </c>
       <c r="H313" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10806,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10832,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10858,7 +10864,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H316" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10884,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10910,7 +10916,7 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="H318" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10936,7 +10942,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H319" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10962,7 +10968,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="H320" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10988,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11014,7 +11020,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H322" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11040,7 +11046,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H323" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11066,7 +11072,7 @@
         <v>0.7611940298507462</v>
       </c>
       <c r="H324" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11092,7 +11098,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11118,7 +11124,7 @@
         <v>0.7681159420289856</v>
       </c>
       <c r="H326" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11144,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11170,7 +11176,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H328" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11196,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11222,7 +11228,7 @@
         <v>0.4507042253521127</v>
       </c>
       <c r="H330" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11248,7 +11254,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H331" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11274,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11300,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11326,7 +11332,7 @@
         <v>0.2297297297297297</v>
       </c>
       <c r="H334" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11352,7 +11358,7 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="H335" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11378,7 +11384,7 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="H336" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11404,7 +11410,7 @@
         <v>0.2328767123287671</v>
       </c>
       <c r="H337" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11430,7 +11436,7 @@
         <v>0.3055555555555555</v>
       </c>
       <c r="H338" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11456,7 +11462,7 @@
         <v>0.5342465753424658</v>
       </c>
       <c r="H339" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11482,7 +11488,7 @@
         <v>0.5</v>
       </c>
       <c r="H340" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11508,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11534,7 +11540,7 @@
         <v>0.7532467532467533</v>
       </c>
       <c r="H342" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11560,7 +11566,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H343" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11586,7 +11592,7 @@
         <v>0.7307692307692308</v>
       </c>
       <c r="H344" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11612,7 +11618,7 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="H345" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11638,7 +11644,7 @@
         <v>0.2982456140350877</v>
       </c>
       <c r="H346" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11664,7 +11670,7 @@
         <v>0.6607142857142858</v>
       </c>
       <c r="H347" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11690,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11716,7 +11722,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H349" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11742,7 +11748,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H350" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11768,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11794,7 +11800,7 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="H352" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11820,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11846,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11872,7 +11878,7 @@
         <v>0.6</v>
       </c>
       <c r="H355" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11898,7 +11904,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="H356" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11924,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11950,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11976,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12002,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12028,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12054,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12080,7 +12086,7 @@
         <v>0.6136363636363638</v>
       </c>
       <c r="H363" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12106,7 +12112,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H364" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12132,7 +12138,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H365" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12158,7 +12164,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H366" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12184,7 +12190,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H367" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12210,7 +12216,7 @@
         <v>0.3409090909090909</v>
       </c>
       <c r="H368" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12236,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12262,7 +12268,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H370" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12288,7 +12294,7 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="H371" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12314,7 +12320,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12340,7 +12346,7 @@
         <v>0.3043478260869565</v>
       </c>
       <c r="H373" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12366,7 +12372,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H374" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12392,7 +12398,7 @@
         <v>0.2807017543859649</v>
       </c>
       <c r="H375" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12418,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12444,7 +12450,7 @@
         <v>0.4576271186440677</v>
       </c>
       <c r="H377" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12470,7 +12476,7 @@
         <v>0.25</v>
       </c>
       <c r="H378" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12496,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12522,7 +12528,7 @@
         <v>0.5254237288135594</v>
       </c>
       <c r="H380" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12548,7 +12554,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="H381" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12574,7 +12580,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H382" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12600,7 +12606,7 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="H383" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12626,7 +12632,7 @@
         <v>0.6304347826086957</v>
       </c>
       <c r="H384" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12652,7 +12658,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H385" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12678,7 +12684,7 @@
         <v>0.391304347826087</v>
       </c>
       <c r="H386" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12704,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12730,7 +12736,7 @@
         <v>0.6326530612244897</v>
       </c>
       <c r="H388" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12756,7 +12762,7 @@
         <v>0.3061224489795919</v>
       </c>
       <c r="H389" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12782,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12808,7 +12814,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H391" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12834,7 +12840,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H392" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12860,7 +12866,7 @@
         <v>0.734375</v>
       </c>
       <c r="H393" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12886,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12912,7 +12918,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H395" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12938,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12964,7 +12970,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H397" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12990,7 +12996,7 @@
         <v>0.746031746031746</v>
       </c>
       <c r="H398" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13016,7 +13022,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13042,7 +13048,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H400" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13068,7 +13074,7 @@
         <v>0.4852941176470588</v>
       </c>
       <c r="H401" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13094,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13120,7 +13126,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H403" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13146,7 +13152,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H404" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13172,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13198,7 +13204,7 @@
         <v>0.7</v>
       </c>
       <c r="H406" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13224,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13250,7 +13256,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="H408" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13276,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13302,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13328,7 +13334,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H411" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13354,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13380,7 +13386,7 @@
         <v>0.3725490196078431</v>
       </c>
       <c r="H413" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13406,7 +13412,7 @@
         <v>0.673076923076923</v>
       </c>
       <c r="H414" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13432,7 +13438,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="H415" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13458,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13484,7 +13490,7 @@
         <v>0.3</v>
       </c>
       <c r="H417" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13510,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13536,7 +13542,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="H419" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13562,7 +13568,7 @@
         <v>0.3191489361702128</v>
       </c>
       <c r="H420" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13588,7 +13594,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H421" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13614,7 +13620,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="H422" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13640,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13666,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13692,7 +13698,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13718,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13744,7 +13750,7 @@
         <v>0.62</v>
       </c>
       <c r="H427" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13770,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13796,7 +13802,7 @@
         <v>0.6346153846153846</v>
       </c>
       <c r="H429" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13822,7 +13828,7 @@
         <v>0.71875</v>
       </c>
       <c r="H430" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13848,7 +13854,7 @@
         <v>0.2153846153846154</v>
       </c>
       <c r="H431" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13874,7 +13880,7 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="H432" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13900,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13926,7 +13932,7 @@
         <v>0.5</v>
       </c>
       <c r="H434" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13952,7 +13958,7 @@
         <v>0.2898550724637681</v>
       </c>
       <c r="H435" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13978,7 +13984,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H436" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14004,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14030,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14056,7 +14062,7 @@
         <v>0.7605633802816902</v>
       </c>
       <c r="H439" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14082,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14108,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14134,7 +14140,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14160,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14186,7 +14192,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H444" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14212,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14238,7 +14244,7 @@
         <v>0.6226415094339622</v>
       </c>
       <c r="H446" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14264,7 +14270,7 @@
         <v>0.2830188679245283</v>
       </c>
       <c r="H447" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14290,7 +14296,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H448" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14316,7 +14322,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14342,7 +14348,7 @@
         <v>0.45</v>
       </c>
       <c r="H450" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14368,7 +14374,7 @@
         <v>0.45</v>
       </c>
       <c r="H451" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14394,7 +14400,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14420,7 +14426,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="H453" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14446,7 +14452,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H454" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14472,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14498,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14524,7 +14530,7 @@
         <v>0.7285714285714286</v>
       </c>
       <c r="H457" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14550,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14576,7 +14582,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H459" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14602,7 +14608,7 @@
         <v>0.2</v>
       </c>
       <c r="H460" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14628,7 +14634,7 @@
         <v>0.7230769230769232</v>
       </c>
       <c r="H461" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14654,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14680,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14706,7 +14712,7 @@
         <v>0.7500000000000001</v>
       </c>
       <c r="H464" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14732,7 +14738,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14758,7 +14764,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="H466" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14784,7 +14790,7 @@
         <v>0.484375</v>
       </c>
       <c r="H467" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14810,7 +14816,7 @@
         <v>0.7424242424242425</v>
       </c>
       <c r="H468" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14836,7 +14842,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H469" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14862,7 +14868,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H470" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14888,7 +14894,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14914,7 +14920,7 @@
         <v>0.6862745098039216</v>
       </c>
       <c r="H472" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14940,7 +14946,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H473" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14966,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14992,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15018,7 +15024,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H476" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15044,7 +15050,7 @@
         <v>0.5135135135135135</v>
       </c>
       <c r="H477" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15070,7 +15076,7 @@
         <v>0.5</v>
       </c>
       <c r="H478" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15096,7 +15102,7 @@
         <v>0.5142857142857143</v>
       </c>
       <c r="H479" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15122,7 +15128,7 @@
         <v>0.4722222222222223</v>
       </c>
       <c r="H480" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15148,7 +15154,7 @@
         <v>0.4594594594594594</v>
       </c>
       <c r="H481" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15174,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15200,7 +15206,7 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="H483" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15226,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15252,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15278,7 +15284,7 @@
         <v>0.8125</v>
       </c>
       <c r="H486" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15304,7 +15310,7 @@
         <v>0.8125</v>
       </c>
       <c r="H487" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15330,7 +15336,7 @@
         <v>0.4925373134328359</v>
       </c>
       <c r="H488" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15356,7 +15362,7 @@
         <v>0.8208955223880597</v>
       </c>
       <c r="H489" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15382,7 +15388,7 @@
         <v>0.4923076923076923</v>
       </c>
       <c r="H490" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15408,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15434,7 +15440,7 @@
         <v>0.5</v>
       </c>
       <c r="H492" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15460,7 +15466,7 @@
         <v>0.8064516129032259</v>
       </c>
       <c r="H493" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15486,7 +15492,7 @@
         <v>0.40625</v>
       </c>
       <c r="H494" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15512,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15538,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15564,7 +15570,7 @@
         <v>0.5076923076923077</v>
       </c>
       <c r="H497" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15590,7 +15596,7 @@
         <v>0.484375</v>
       </c>
       <c r="H498" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15616,7 +15622,7 @@
         <v>0.2461538461538462</v>
       </c>
       <c r="H499" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15642,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15668,7 +15674,7 @@
         <v>0.62</v>
       </c>
       <c r="H501" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15694,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15720,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15746,7 +15752,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15772,7 +15778,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="H505" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15798,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15824,7 +15830,7 @@
         <v>0.2753623188405797</v>
       </c>
       <c r="H507" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15850,7 +15856,7 @@
         <v>0.7681159420289855</v>
       </c>
       <c r="H508" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15876,7 +15882,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15902,7 +15908,7 @@
         <v>0.2686567164179104</v>
       </c>
       <c r="H510" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15928,7 +15934,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15954,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15980,7 +15986,7 @@
         <v>0.5076923076923078</v>
       </c>
       <c r="H513" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -16006,7 +16012,7 @@
         <v>0.4921</v>
       </c>
       <c r="H514" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -16032,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -16058,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16084,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16110,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16136,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16162,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16188,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16214,7 +16220,7 @@
         <v>0.3478</v>
       </c>
       <c r="H522" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16240,7 +16246,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16266,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16292,7 +16298,7 @@
         <v>0.7667</v>
       </c>
       <c r="H525" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16318,7 +16324,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16344,7 +16350,7 @@
         <v>0.5077</v>
       </c>
       <c r="H527" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16370,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16396,7 +16402,7 @@
         <v>0.25</v>
       </c>
       <c r="H529" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16422,7 +16428,7 @@
         <v>0.4839</v>
       </c>
       <c r="H530" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16448,7 +16454,7 @@
         <v>0.5</v>
       </c>
       <c r="H531" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16474,7 +16480,7 @@
         <v>0.5152</v>
       </c>
       <c r="H532" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16500,7 +16506,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16526,7 +16532,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16552,7 +16558,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16578,7 +16584,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16604,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16630,7 +16636,7 @@
         <v>0.5484</v>
       </c>
       <c r="H538" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16656,7 +16662,7 @@
         <v>0.5312</v>
       </c>
       <c r="H539" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16682,7 +16688,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16708,7 +16714,7 @@
         <v>0.5312</v>
       </c>
       <c r="H541" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16734,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16760,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16786,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16812,7 +16818,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16838,7 +16844,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H546" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16864,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16890,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16916,7 +16922,7 @@
         <v>0.6522</v>
       </c>
       <c r="H549" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16942,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16968,7 +16974,7 @@
         <v>0.6522</v>
       </c>
       <c r="H551" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16994,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -17020,7 +17026,7 @@
         <v>0.6808999999999998</v>
       </c>
       <c r="H553" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -17046,7 +17052,7 @@
         <v>0.6957</v>
       </c>
       <c r="H554" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17072,7 +17078,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H555" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17098,7 +17104,7 @@
         <v>0.6818</v>
       </c>
       <c r="H556" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17124,7 +17130,7 @@
         <v>0.6512</v>
       </c>
       <c r="H557" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17150,7 +17156,7 @@
         <v>0.7458</v>
       </c>
       <c r="H558" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17176,7 +17182,7 @@
         <v>0.7288</v>
       </c>
       <c r="H559" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17202,7 +17208,7 @@
         <v>0.6522</v>
       </c>
       <c r="H560" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17228,7 +17234,7 @@
         <v>0.6522</v>
       </c>
       <c r="H561" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17254,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17280,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17306,7 +17312,7 @@
         <v>0.6808999999999998</v>
       </c>
       <c r="H564" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17332,7 +17338,7 @@
         <v>0.7544</v>
       </c>
       <c r="H565" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17358,7 +17364,7 @@
         <v>0.4333</v>
       </c>
       <c r="H566" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17384,7 +17390,7 @@
         <v>0.25</v>
       </c>
       <c r="H567" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17410,7 +17416,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17436,7 +17442,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17462,7 +17468,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17488,7 +17494,7 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17498,7 +17504,13 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="E572">
         <v>0</v>
       </c>
       <c r="F572">
@@ -17508,7 +17520,53 @@
         <v>0.28</v>
       </c>
       <c r="H572" t="s">
-        <v>621</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
